--- a/data/computed/TD-covid19-ita-andamento-nazionale_rt.xlsx
+++ b/data/computed/TD-covid19-ita-andamento-nazionale_rt.xlsx
@@ -472,3130 +472,3130 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>278</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>43891.99930555555</v>
+        <v>44163.99930555555</v>
       </c>
       <c r="C2" t="n">
-        <v>566</v>
+        <v>26323</v>
       </c>
       <c r="D2" t="n">
-        <v>358.4148984711344</v>
+        <v>24745.10298182266</v>
       </c>
       <c r="E2" t="n">
-        <v>4.491548269870735</v>
+        <v>0.8353841841939478</v>
       </c>
       <c r="F2" t="n">
-        <v>4.024604353724713</v>
+        <v>0.8245579123449814</v>
       </c>
       <c r="G2" t="n">
-        <v>4.951013993269946</v>
+        <v>0.8452661330251902</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>7</v>
+        <v>277</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43892.99930555555</v>
+        <v>44162.99930555555</v>
       </c>
       <c r="C3" t="n">
-        <v>342</v>
+        <v>28352</v>
       </c>
       <c r="D3" t="n">
-        <v>437.903030941235</v>
+        <v>25340.05619750609</v>
       </c>
       <c r="E3" t="n">
-        <v>3.862315927417467</v>
+        <v>0.8342087205276288</v>
       </c>
       <c r="F3" t="n">
-        <v>3.502412497974359</v>
+        <v>0.8236411388440215</v>
       </c>
       <c r="G3" t="n">
-        <v>4.223143076743031</v>
+        <v>0.8443219946979422</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>8</v>
+        <v>276</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>43893.99930555555</v>
+        <v>44161.99930555555</v>
       </c>
       <c r="C4" t="n">
-        <v>466</v>
+        <v>29003</v>
       </c>
       <c r="D4" t="n">
-        <v>530.6088883693205</v>
+        <v>25960.15616334927</v>
       </c>
       <c r="E4" t="n">
-        <v>3.455082309148727</v>
+        <v>0.8341396315763779</v>
       </c>
       <c r="F4" t="n">
-        <v>3.17239756923786</v>
+        <v>0.8243001984678241</v>
       </c>
       <c r="G4" t="n">
-        <v>3.754541389046756</v>
+        <v>0.8443720741577028</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9</v>
+        <v>275</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43894.99930555555</v>
+        <v>44160.99930555555</v>
       </c>
       <c r="C5" t="n">
-        <v>587</v>
+        <v>25853</v>
       </c>
       <c r="D5" t="n">
-        <v>640.9944074314133</v>
+        <v>26665.14415964995</v>
       </c>
       <c r="E5" t="n">
-        <v>3.190373624713172</v>
+        <v>0.8377204662517624</v>
       </c>
       <c r="F5" t="n">
-        <v>2.943563590282525</v>
+        <v>0.8278298347396669</v>
       </c>
       <c r="G5" t="n">
-        <v>3.438288402352172</v>
+        <v>0.8480030785080122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>10</v>
+        <v>274</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>43895.99930555555</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="C6" t="n">
-        <v>769</v>
+        <v>23232</v>
       </c>
       <c r="D6" t="n">
-        <v>772.419853351285</v>
+        <v>27528.78433879744</v>
       </c>
       <c r="E6" t="n">
-        <v>3.012716098815155</v>
+        <v>0.8478342458895907</v>
       </c>
       <c r="F6" t="n">
-        <v>2.806501898152989</v>
+        <v>0.8380163834808627</v>
       </c>
       <c r="G6" t="n">
-        <v>3.223123572385248</v>
+        <v>0.8583253838126084</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43896.99930555555</v>
+        <v>44158.99930555555</v>
       </c>
       <c r="C7" t="n">
-        <v>778</v>
+        <v>22930</v>
       </c>
       <c r="D7" t="n">
-        <v>926.8469009622889</v>
+        <v>28587.88362886081</v>
       </c>
       <c r="E7" t="n">
-        <v>2.885668650579812</v>
+        <v>0.8659332989620775</v>
       </c>
       <c r="F7" t="n">
-        <v>2.704335510814409</v>
+        <v>0.8557558025618367</v>
       </c>
       <c r="G7" t="n">
-        <v>3.068644308649456</v>
+        <v>0.8757727049513746</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43897.99930555555</v>
+        <v>44157.99930555555</v>
       </c>
       <c r="C8" t="n">
-        <v>1247</v>
+        <v>28337</v>
       </c>
       <c r="D8" t="n">
-        <v>1105.081710777732</v>
+        <v>29799.44307877321</v>
       </c>
       <c r="E8" t="n">
-        <v>2.781758597523088</v>
+        <v>0.891322015486726</v>
       </c>
       <c r="F8" t="n">
-        <v>2.620278692938359</v>
+        <v>0.8809688879687335</v>
       </c>
       <c r="G8" t="n">
-        <v>2.945160182792168</v>
+        <v>0.9012751442385321</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>13</v>
+        <v>271</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>43898.99930555555</v>
+        <v>44156.99930555555</v>
       </c>
       <c r="C9" t="n">
-        <v>1492</v>
+        <v>34767</v>
       </c>
       <c r="D9" t="n">
-        <v>1307.052240162365</v>
+        <v>31040.82704690434</v>
       </c>
       <c r="E9" t="n">
-        <v>2.687776081966617</v>
+        <v>0.9206867552199787</v>
       </c>
       <c r="F9" t="n">
-        <v>2.544165375490672</v>
+        <v>0.9105429506640031</v>
       </c>
       <c r="G9" t="n">
-        <v>2.833300127929616</v>
+        <v>0.9314647667432204</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>14</v>
+        <v>270</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>43899.99930555555</v>
+        <v>44155.99930555555</v>
       </c>
       <c r="C10" t="n">
-        <v>1797</v>
+        <v>37242</v>
       </c>
       <c r="D10" t="n">
-        <v>1533.57391711426</v>
+        <v>32166.54122592466</v>
       </c>
       <c r="E10" t="n">
-        <v>2.599501304884708</v>
+        <v>0.9496040501360038</v>
       </c>
       <c r="F10" t="n">
-        <v>2.469735076714271</v>
+        <v>0.9395559894698102</v>
       </c>
       <c r="G10" t="n">
-        <v>2.726742418421338</v>
+        <v>0.9601361088305636</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43900.99930555555</v>
+        <v>44154.99930555555</v>
       </c>
       <c r="C11" t="n">
-        <v>977</v>
+        <v>36176</v>
       </c>
       <c r="D11" t="n">
-        <v>1786.696270354389</v>
+        <v>33079.63509845232</v>
       </c>
       <c r="E11" t="n">
-        <v>2.516642385184804</v>
+        <v>0.9754174953447852</v>
       </c>
       <c r="F11" t="n">
-        <v>2.399662033455292</v>
+        <v>0.965085477318837</v>
       </c>
       <c r="G11" t="n">
-        <v>2.632077507114305</v>
+        <v>0.9860835206532085</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43901.99930555555</v>
+        <v>44153.99930555555</v>
       </c>
       <c r="C12" t="n">
-        <v>2313</v>
+        <v>34282</v>
       </c>
       <c r="D12" t="n">
-        <v>2068.199969574979</v>
+        <v>33765.87266317663</v>
       </c>
       <c r="E12" t="n">
-        <v>2.438737201307874</v>
+        <v>0.9974710413949904</v>
       </c>
       <c r="F12" t="n">
-        <v>2.336581734572544</v>
+        <v>0.9869799282612476</v>
       </c>
       <c r="G12" t="n">
-        <v>2.544535954714712</v>
+        <v>1.007887430576335</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>17</v>
+        <v>267</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>43902.99930555555</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="C13" t="n">
-        <v>2651</v>
+        <v>32191</v>
       </c>
       <c r="D13" t="n">
-        <v>2375.459675401488</v>
+        <v>34277.1785732316</v>
       </c>
       <c r="E13" t="n">
-        <v>2.364514327629453</v>
+        <v>1.017412947392296</v>
       </c>
       <c r="F13" t="n">
-        <v>2.27402242242624</v>
+        <v>1.006809356246668</v>
       </c>
       <c r="G13" t="n">
-        <v>2.461210968785456</v>
+        <v>1.028002609075749</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43903.99930555555</v>
+        <v>44151.99930555555</v>
       </c>
       <c r="C14" t="n">
-        <v>2547</v>
+        <v>27354</v>
       </c>
       <c r="D14" t="n">
-        <v>2705.40377276843</v>
+        <v>34684.1206255666</v>
       </c>
       <c r="E14" t="n">
-        <v>2.28886424470632</v>
+        <v>1.037278627592162</v>
       </c>
       <c r="F14" t="n">
-        <v>2.202810385218476</v>
+        <v>1.026565611069501</v>
       </c>
       <c r="G14" t="n">
-        <v>2.373499160923195</v>
+        <v>1.048053761447724</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>19</v>
+        <v>265</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43904.99930555555</v>
+        <v>44150.99930555555</v>
       </c>
       <c r="C15" t="n">
-        <v>3497</v>
+        <v>33979</v>
       </c>
       <c r="D15" t="n">
-        <v>3056.026171947804</v>
+        <v>35023.25097694289</v>
       </c>
       <c r="E15" t="n">
-        <v>2.213996369061134</v>
+        <v>1.058633718830914</v>
       </c>
       <c r="F15" t="n">
-        <v>2.136886113240921</v>
+        <v>1.047564555350405</v>
       </c>
       <c r="G15" t="n">
-        <v>2.291034296792358</v>
+        <v>1.069814684970963</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43905.99930555555</v>
+        <v>44149.99930555555</v>
       </c>
       <c r="C16" t="n">
-        <v>3590</v>
+        <v>37255</v>
       </c>
       <c r="D16" t="n">
-        <v>3425.14272847816</v>
+        <v>35265.30914565536</v>
       </c>
       <c r="E16" t="n">
-        <v>2.13910221467652</v>
+        <v>1.080279625746079</v>
       </c>
       <c r="F16" t="n">
-        <v>2.06763614913356</v>
+        <v>1.06875627380152</v>
       </c>
       <c r="G16" t="n">
-        <v>2.211049304602323</v>
+        <v>1.091671703369817</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>43906.99930555555</v>
+        <v>44148.99930555555</v>
       </c>
       <c r="C17" t="n">
-        <v>3233</v>
+        <v>40902</v>
       </c>
       <c r="D17" t="n">
-        <v>3810.731603112705</v>
+        <v>35356.74621952384</v>
       </c>
       <c r="E17" t="n">
-        <v>2.068465735965944</v>
+        <v>1.100639345539477</v>
       </c>
       <c r="F17" t="n">
-        <v>2.004925497235616</v>
+        <v>1.089298725572058</v>
       </c>
       <c r="G17" t="n">
-        <v>2.136285514322696</v>
+        <v>1.112057333299548</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43907.99930555555</v>
+        <v>44147.99930555555</v>
       </c>
       <c r="C18" t="n">
-        <v>3526</v>
+        <v>37978</v>
       </c>
       <c r="D18" t="n">
-        <v>4206.863970707115</v>
+        <v>35271.71157364748</v>
       </c>
       <c r="E18" t="n">
-        <v>1.998306148126817</v>
+        <v>1.118665783455487</v>
       </c>
       <c r="F18" t="n">
-        <v>1.940478528403295</v>
+        <v>1.10716812244357</v>
       </c>
       <c r="G18" t="n">
-        <v>2.061213770080558</v>
+        <v>1.130539152302848</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43908.99930555555</v>
+        <v>44146.99930555555</v>
       </c>
       <c r="C19" t="n">
-        <v>4207</v>
+        <v>32961</v>
       </c>
       <c r="D19" t="n">
-        <v>4597.986156102399</v>
+        <v>35044.20267963337</v>
       </c>
       <c r="E19" t="n">
-        <v>1.925148111368934</v>
+        <v>1.135181783528724</v>
       </c>
       <c r="F19" t="n">
-        <v>1.869161364737081</v>
+        <v>1.123405669636265</v>
       </c>
       <c r="G19" t="n">
-        <v>1.981475505425481</v>
+        <v>1.147244502643785</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>24</v>
+        <v>260</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43909.99930555555</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="C20" t="n">
-        <v>5322</v>
+        <v>35098</v>
       </c>
       <c r="D20" t="n">
-        <v>4958.978971896596</v>
+        <v>34744.76237693566</v>
       </c>
       <c r="E20" t="n">
-        <v>1.844019168341095</v>
+        <v>1.152761521449032</v>
       </c>
       <c r="F20" t="n">
-        <v>1.792747788005043</v>
+        <v>1.140768928589765</v>
       </c>
       <c r="G20" t="n">
-        <v>1.895456853246481</v>
+        <v>1.164656741316182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>43910.99930555555</v>
+        <v>44144.99930555555</v>
       </c>
       <c r="C21" t="n">
-        <v>5986</v>
+        <v>25271</v>
       </c>
       <c r="D21" t="n">
-        <v>5262.025850184803</v>
+        <v>34430.12326008769</v>
       </c>
       <c r="E21" t="n">
-        <v>1.751575062047092</v>
+        <v>1.173486572157142</v>
       </c>
       <c r="F21" t="n">
-        <v>1.705436314848651</v>
+        <v>1.161062338146662</v>
       </c>
       <c r="G21" t="n">
-        <v>1.800730373616059</v>
+        <v>1.185756631396226</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>43911.99930555555</v>
+        <v>44143.99930555555</v>
       </c>
       <c r="C22" t="n">
-        <v>6557</v>
+        <v>32616</v>
       </c>
       <c r="D22" t="n">
-        <v>5487.390718634382</v>
+        <v>34113.68409260785</v>
       </c>
       <c r="E22" t="n">
-        <v>1.650338403724035</v>
+        <v>1.198733825715305</v>
       </c>
       <c r="F22" t="n">
-        <v>1.606677925011371</v>
+        <v>1.186384703482376</v>
       </c>
       <c r="G22" t="n">
-        <v>1.692815247885323</v>
+        <v>1.211232964440617</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43912.99930555555</v>
+        <v>44142.99930555555</v>
       </c>
       <c r="C23" t="n">
-        <v>5560</v>
+        <v>39811</v>
       </c>
       <c r="D23" t="n">
-        <v>5630.565773440974</v>
+        <v>33732.53384467749</v>
       </c>
       <c r="E23" t="n">
-        <v>1.546544265442522</v>
+        <v>1.226527157999614</v>
       </c>
       <c r="F23" t="n">
-        <v>1.506160605024485</v>
+        <v>1.213368810067297</v>
       </c>
       <c r="G23" t="n">
-        <v>1.587114601450883</v>
+        <v>1.239439635701664</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43913.99930555555</v>
+        <v>44141.99930555555</v>
       </c>
       <c r="C24" t="n">
-        <v>4789</v>
+        <v>37809</v>
       </c>
       <c r="D24" t="n">
-        <v>5702.179395809905</v>
+        <v>33206.08696351144</v>
       </c>
       <c r="E24" t="n">
-        <v>1.446019969131841</v>
+        <v>1.253614792162106</v>
       </c>
       <c r="F24" t="n">
-        <v>1.407372133905994</v>
+        <v>1.240338585747851</v>
       </c>
       <c r="G24" t="n">
-        <v>1.483083498206879</v>
+        <v>1.267065095839127</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>29</v>
+        <v>255</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43914.99930555555</v>
+        <v>44140.99930555555</v>
       </c>
       <c r="C25" t="n">
-        <v>5249</v>
+        <v>34505</v>
       </c>
       <c r="D25" t="n">
-        <v>5717.208025200879</v>
+        <v>32509.71548454645</v>
       </c>
       <c r="E25" t="n">
-        <v>1.354004276453686</v>
+        <v>1.278724291959008</v>
       </c>
       <c r="F25" t="n">
-        <v>1.31822099757309</v>
+        <v>1.265007901921113</v>
       </c>
       <c r="G25" t="n">
-        <v>1.38938456431412</v>
+        <v>1.292426267788479</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43915.99930555555</v>
+        <v>44139.99930555555</v>
       </c>
       <c r="C26" t="n">
-        <v>5210</v>
+        <v>30550</v>
       </c>
       <c r="D26" t="n">
-        <v>5684.893701548698</v>
+        <v>31687.61648117612</v>
       </c>
       <c r="E26" t="n">
-        <v>1.271621064105222</v>
+        <v>1.303317221625738</v>
       </c>
       <c r="F26" t="n">
-        <v>1.238813075049346</v>
+        <v>1.288516226658088</v>
       </c>
       <c r="G26" t="n">
-        <v>1.305139948935898</v>
+        <v>1.317053639869264</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>31</v>
+        <v>253</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43916.99930555555</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="C27" t="n">
-        <v>6153</v>
+        <v>28244</v>
       </c>
       <c r="D27" t="n">
-        <v>5607.793450508319</v>
+        <v>30819.72038403659</v>
       </c>
       <c r="E27" t="n">
-        <v>1.197429804205125</v>
+        <v>1.331073568702557</v>
       </c>
       <c r="F27" t="n">
-        <v>1.166391804203768</v>
+        <v>1.316092977872596</v>
       </c>
       <c r="G27" t="n">
-        <v>1.229215380233845</v>
+        <v>1.345491450325453</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43917.99930555555</v>
+        <v>44137.99930555555</v>
       </c>
       <c r="C28" t="n">
-        <v>5959</v>
+        <v>22253</v>
       </c>
       <c r="D28" t="n">
-        <v>5485.510607506072</v>
+        <v>29968.67645518461</v>
       </c>
       <c r="E28" t="n">
-        <v>1.129470321546598</v>
+        <v>1.365739524345809</v>
       </c>
       <c r="F28" t="n">
-        <v>1.098584739999257</v>
+        <v>1.349907759316895</v>
       </c>
       <c r="G28" t="n">
-        <v>1.158053778251764</v>
+        <v>1.381060034966213</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>33</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43918.99930555555</v>
+        <v>44136.99930555555</v>
       </c>
       <c r="C29" t="n">
-        <v>5974</v>
+        <v>29907</v>
       </c>
       <c r="D29" t="n">
-        <v>5323.17523025608</v>
+        <v>29138.23442711743</v>
       </c>
       <c r="E29" t="n">
-        <v>1.066949930996363</v>
+        <v>1.408641595633645</v>
       </c>
       <c r="F29" t="n">
-        <v>1.038807431267222</v>
+        <v>1.392740761985594</v>
       </c>
       <c r="G29" t="n">
-        <v>1.096686692741679</v>
+        <v>1.425145625306814</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43919.99930555555</v>
+        <v>44135.99930555555</v>
       </c>
       <c r="C30" t="n">
-        <v>5217</v>
+        <v>31758</v>
       </c>
       <c r="D30" t="n">
-        <v>5134.472391300935</v>
+        <v>28257.41334556866</v>
       </c>
       <c r="E30" t="n">
-        <v>1.010662199769047</v>
+        <v>1.457605031484169</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9828735145437374</v>
+        <v>1.4409903274733</v>
       </c>
       <c r="G30" t="n">
-        <v>1.038302761448175</v>
+        <v>1.47491679277316</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>35</v>
+        <v>249</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43920.99930555555</v>
+        <v>44134.99930555555</v>
       </c>
       <c r="C31" t="n">
-        <v>4050</v>
+        <v>31084</v>
       </c>
       <c r="D31" t="n">
-        <v>4939.935526318343</v>
+        <v>27241.82717679111</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9630908721250023</v>
+        <v>1.50779727612992</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9363422944970548</v>
+        <v>1.490230894175057</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9900301017338683</v>
+        <v>1.525870374658006</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43921.99930555555</v>
+        <v>44133.99930555555</v>
       </c>
       <c r="C32" t="n">
-        <v>4053</v>
+        <v>26831</v>
       </c>
       <c r="D32" t="n">
-        <v>4758.731550523786</v>
+        <v>26047.3427591455</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9258850690373206</v>
+        <v>1.554720282323764</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8984421956795918</v>
+        <v>1.535969123758722</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9511521979623861</v>
+        <v>1.573629619021262</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>37</v>
+        <v>247</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43922.99930555555</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="C33" t="n">
-        <v>4782</v>
+        <v>24991</v>
       </c>
       <c r="D33" t="n">
-        <v>4599.620791322276</v>
+        <v>24688.75188862992</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8991156136481316</v>
+        <v>1.595954564160752</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8733764293954909</v>
+        <v>1.5759211835266</v>
       </c>
       <c r="G33" t="n">
-        <v>0.925375956364536</v>
+        <v>1.615424538274628</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43923.99930555555</v>
+        <v>44131.99930555555</v>
       </c>
       <c r="C34" t="n">
-        <v>4668</v>
+        <v>21994</v>
       </c>
       <c r="D34" t="n">
-        <v>4460.816121963365</v>
+        <v>23220.07167518945</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8803376127983834</v>
+        <v>1.632128702658815</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8540506928657537</v>
+        <v>1.610942323602871</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9067373340430144</v>
+        <v>1.652586741179202</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>39</v>
+        <v>245</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43924.99930555555</v>
+        <v>44130.99930555555</v>
       </c>
       <c r="C35" t="n">
-        <v>4585</v>
+        <v>17012</v>
       </c>
       <c r="D35" t="n">
-        <v>4336.899631729642</v>
+        <v>21707.02832744145</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8678701028662226</v>
+        <v>1.66452481267759</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8416236941994932</v>
+        <v>1.643395402012015</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8933063098717344</v>
+        <v>1.687790961882843</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43925.99930555555</v>
+        <v>44129.99930555555</v>
       </c>
       <c r="C36" t="n">
-        <v>4805</v>
+        <v>21273</v>
       </c>
       <c r="D36" t="n">
-        <v>4223.915191362948</v>
+        <v>20196.54845605319</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8599173238385969</v>
+        <v>1.694584819622335</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8348085233951965</v>
+        <v>1.671826566155816</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8866229744125186</v>
+        <v>1.717268463723563</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43926.99930555555</v>
+        <v>44128.99930555555</v>
       </c>
       <c r="C37" t="n">
-        <v>4316</v>
+        <v>19644</v>
       </c>
       <c r="D37" t="n">
-        <v>4122.389473074751</v>
+        <v>18698.56109386937</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8553871511573981</v>
+        <v>1.72080579264309</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8302818145622797</v>
+        <v>1.696751471064169</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8812041852047834</v>
+        <v>1.74552968239704</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43927.99930555555</v>
+        <v>44127.99930555555</v>
       </c>
       <c r="C38" t="n">
-        <v>3599</v>
+        <v>19143</v>
       </c>
       <c r="D38" t="n">
-        <v>4037.871824693919</v>
+        <v>17214.79999923421</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8557403621613642</v>
+        <v>1.740380513877655</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8297765122693702</v>
+        <v>1.714386682650186</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8824084541431617</v>
+        <v>1.766254322128101</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43928.99930555555</v>
+        <v>44126.99930555555</v>
       </c>
       <c r="C39" t="n">
-        <v>3039</v>
+        <v>16079</v>
       </c>
       <c r="D39" t="n">
-        <v>3975.663357848922</v>
+        <v>15756.84144387049</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8613107694806857</v>
+        <v>1.751583572011235</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8342564198004886</v>
+        <v>1.725325406329904</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8873694544529123</v>
+        <v>1.779030649895243</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43929.99930555555</v>
+        <v>44125.99930555555</v>
       </c>
       <c r="C40" t="n">
-        <v>3836</v>
+        <v>15199</v>
       </c>
       <c r="D40" t="n">
-        <v>3933.609846477515</v>
+        <v>14354.72761196243</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8711617981548467</v>
+        <v>1.755274624937441</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8441901260126405</v>
+        <v>1.726669764020811</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8982614213207025</v>
+        <v>1.784109271535913</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43930.99930555555</v>
+        <v>44124.99930555555</v>
       </c>
       <c r="C41" t="n">
-        <v>4204</v>
+        <v>10874</v>
       </c>
       <c r="D41" t="n">
-        <v>3899.283360084915</v>
+        <v>13046.30799858766</v>
       </c>
       <c r="E41" t="n">
-        <v>0.881840754951304</v>
+        <v>1.754702411568065</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8542172019963851</v>
+        <v>1.723912978034632</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9090068143423607</v>
+        <v>1.783567743956804</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>46</v>
+        <v>238</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43931.99930555555</v>
+        <v>44123.99930555555</v>
       </c>
       <c r="C42" t="n">
-        <v>3951</v>
+        <v>9338</v>
       </c>
       <c r="D42" t="n">
-        <v>3856.530623666478</v>
+        <v>11863.36922299581</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8902819056595349</v>
+        <v>1.75561147578796</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8624996060365345</v>
+        <v>1.723363853953548</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9167895281453712</v>
+        <v>1.786663653166162</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43932.99930555555</v>
+        <v>44122.99930555555</v>
       </c>
       <c r="C43" t="n">
-        <v>4694</v>
+        <v>11705</v>
       </c>
       <c r="D43" t="n">
-        <v>3792.997426926588</v>
+        <v>10809.32211871302</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8920846849943604</v>
+        <v>1.761614207437971</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8645704075707431</v>
+        <v>1.728450500478337</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9211452426843983</v>
+        <v>1.794748917489438</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>48</v>
+        <v>236</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43933.99930555555</v>
+        <v>44121.99930555555</v>
       </c>
       <c r="C44" t="n">
-        <v>4092</v>
+        <v>10925</v>
       </c>
       <c r="D44" t="n">
-        <v>3704.605836030739</v>
+        <v>9858.641902570296</v>
       </c>
       <c r="E44" t="n">
-        <v>0.887496003496425</v>
+        <v>1.770578607350251</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8600768745589914</v>
+        <v>1.735609561827935</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9166124475988296</v>
+        <v>1.805126366909636</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43934.99930555555</v>
+        <v>44120.99930555555</v>
       </c>
       <c r="C45" t="n">
-        <v>3153</v>
+        <v>10010</v>
       </c>
       <c r="D45" t="n">
-        <v>3599.086648649403</v>
+        <v>8981.57203629817</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8780138169557375</v>
+        <v>1.778098952884561</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8496567479570987</v>
+        <v>1.740885905761246</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9059917840835549</v>
+        <v>1.814891571910363</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>50</v>
+        <v>234</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43935.99930555555</v>
+        <v>44119.99930555555</v>
       </c>
       <c r="C46" t="n">
-        <v>2972</v>
+        <v>8804</v>
       </c>
       <c r="D46" t="n">
-        <v>3490.502033894685</v>
+        <v>8159.871309297454</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8680629446217044</v>
+        <v>1.780853581862816</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8394488884620034</v>
+        <v>1.742613815683571</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8965588205805836</v>
+        <v>1.820291360447285</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43936.99930555555</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="C47" t="n">
-        <v>2667</v>
+        <v>7332</v>
       </c>
       <c r="D47" t="n">
-        <v>3389.894025553066</v>
+        <v>7391.897340930749</v>
       </c>
       <c r="E47" t="n">
-        <v>0.859849794181879</v>
+        <v>1.777056915248917</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8321915718125528</v>
+        <v>1.738156688201598</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8891194144471288</v>
+        <v>1.819311659537836</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>43937.99930555555</v>
+        <v>44117.99930555555</v>
       </c>
       <c r="C48" t="n">
-        <v>3786</v>
+        <v>5901</v>
       </c>
       <c r="D48" t="n">
-        <v>3300.393997905949</v>
+        <v>6687.415802395305</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8549172026916234</v>
+        <v>1.769340113223102</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8271013439847157</v>
+        <v>1.727704184634158</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8844965746759816</v>
+        <v>1.81205196943384</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>53</v>
+        <v>231</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>43938.99930555555</v>
+        <v>44116.99930555555</v>
       </c>
       <c r="C49" t="n">
-        <v>3493</v>
+        <v>4619</v>
       </c>
       <c r="D49" t="n">
-        <v>3217.517086970322</v>
+        <v>6055.978351529164</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8522878281067023</v>
+        <v>1.76118899371319</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8235609983200847</v>
+        <v>1.715649407327011</v>
       </c>
       <c r="G49" t="n">
-        <v>0.8814513142969488</v>
+        <v>1.803572561085671</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43939.99930555555</v>
+        <v>44115.99930555555</v>
       </c>
       <c r="C50" t="n">
-        <v>3491</v>
+        <v>5456</v>
       </c>
       <c r="D50" t="n">
-        <v>3136.685603302299</v>
+        <v>5495.899542144609</v>
       </c>
       <c r="E50" t="n">
-        <v>0.849875679911362</v>
+        <v>1.754489316059602</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8190788466943448</v>
+        <v>1.70822652158457</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8797493527016491</v>
+        <v>1.800395084858026</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43940.99930555555</v>
+        <v>44114.99930555555</v>
       </c>
       <c r="C51" t="n">
-        <v>3047</v>
+        <v>5724</v>
       </c>
       <c r="D51" t="n">
-        <v>3055.896338176789</v>
+        <v>4991.127890986943</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8473024018088033</v>
+        <v>1.744951690264994</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8178261903317922</v>
+        <v>1.697407117937997</v>
       </c>
       <c r="G51" t="n">
-        <v>0.8781954840437461</v>
+        <v>1.792573853694253</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43941.99930555555</v>
+        <v>44113.99930555555</v>
       </c>
       <c r="C52" t="n">
-        <v>2256</v>
+        <v>5372</v>
       </c>
       <c r="D52" t="n">
-        <v>2975.633145729309</v>
+        <v>4522.486727674026</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8450600347718717</v>
+        <v>1.725647307740777</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8159106565777072</v>
+        <v>1.675989875596241</v>
       </c>
       <c r="G52" t="n">
-        <v>0.8763863342270856</v>
+        <v>1.775458252718524</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43942.99930555555</v>
+        <v>44112.99930555555</v>
       </c>
       <c r="C53" t="n">
-        <v>2729</v>
+        <v>4458</v>
       </c>
       <c r="D53" t="n">
-        <v>2895.23622076517</v>
+        <v>4079.314040182893</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8421951091035483</v>
+        <v>1.688777291212364</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8115213856371691</v>
+        <v>1.638776506485354</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8734774888788686</v>
+        <v>1.740385096032105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>58</v>
+        <v>226</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43943.99930555555</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="C54" t="n">
-        <v>3370</v>
+        <v>3678</v>
       </c>
       <c r="D54" t="n">
-        <v>2809.3604650328</v>
+        <v>3663.773599515645</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8374548811095497</v>
+        <v>1.634500170883815</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8065450306118813</v>
+        <v>1.582366694623814</v>
       </c>
       <c r="G54" t="n">
-        <v>0.868250097285043</v>
+        <v>1.687280510548055</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>59</v>
+        <v>225</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43944.99930555555</v>
+        <v>44110.99930555555</v>
       </c>
       <c r="C55" t="n">
-        <v>2646</v>
+        <v>2677</v>
       </c>
       <c r="D55" t="n">
-        <v>2711.630162164234</v>
+        <v>3286.670952483901</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8293429119731779</v>
+        <v>1.567084493908906</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7982322779703173</v>
+        <v>1.510545803609385</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8602135271755648</v>
+        <v>1.619050595227247</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>43945.99930555555</v>
+        <v>44109.99930555555</v>
       </c>
       <c r="C56" t="n">
-        <v>3021</v>
+        <v>2257</v>
       </c>
       <c r="D56" t="n">
-        <v>2599.955965103094</v>
+        <v>2959.482552676897</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8162158647597515</v>
+        <v>1.494277336876094</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7847132598397165</v>
+        <v>1.44240315965633</v>
       </c>
       <c r="G56" t="n">
-        <v>0.8473211288085497</v>
+        <v>1.54985807904398</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>61</v>
+        <v>223</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>43946.99930555555</v>
+        <v>44108.99930555555</v>
       </c>
       <c r="C57" t="n">
-        <v>2357</v>
+        <v>2578</v>
       </c>
       <c r="D57" t="n">
-        <v>2476.245561071606</v>
+        <v>2686.252628761764</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7992699180116262</v>
+        <v>1.42529037747938</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7669776663900969</v>
+        <v>1.372279298469934</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8294755270652867</v>
+        <v>1.478775965567246</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>62</v>
+        <v>222</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>43947.99930555555</v>
+        <v>44107.99930555555</v>
       </c>
       <c r="C58" t="n">
-        <v>2324</v>
+        <v>2844</v>
       </c>
       <c r="D58" t="n">
-        <v>2346.770553703111</v>
+        <v>2461.586763347836</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7802733262230189</v>
+        <v>1.362934554395522</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7485428007139946</v>
+        <v>1.309614438665328</v>
       </c>
       <c r="G58" t="n">
-        <v>0.8113498080894535</v>
+        <v>1.417100260730105</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>43948.99930555555</v>
+        <v>44106.99930555555</v>
       </c>
       <c r="C59" t="n">
-        <v>1739</v>
+        <v>2499</v>
       </c>
       <c r="D59" t="n">
-        <v>2218.322999357893</v>
+        <v>2275.670295985499</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7615828266425139</v>
+        <v>1.304718730915378</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7294000047608228</v>
+        <v>1.252877858892535</v>
       </c>
       <c r="G59" t="n">
-        <v>0.7936203377452188</v>
+        <v>1.358420733988148</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>43949.99930555555</v>
+        <v>44105.99930555555</v>
       </c>
       <c r="C60" t="n">
-        <v>2091</v>
+        <v>2548</v>
       </c>
       <c r="D60" t="n">
-        <v>2095.56430211</v>
+        <v>2120.369251639212</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7453189074865636</v>
+        <v>1.25058763782721</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7135302425446978</v>
+        <v>1.199776601294214</v>
       </c>
       <c r="G60" t="n">
-        <v>0.7779507698262709</v>
+        <v>1.305603250915046</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>43950.99930555555</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="C61" t="n">
-        <v>2086</v>
+        <v>1851</v>
       </c>
       <c r="D61" t="n">
-        <v>1978.601848258947</v>
+        <v>1991.517139537016</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7305829703757459</v>
+        <v>1.203426842371343</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6991416909821707</v>
+        <v>1.148818208028579</v>
       </c>
       <c r="G61" t="n">
-        <v>0.7645203417356519</v>
+        <v>1.254577450960005</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>66</v>
+        <v>218</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>43951.99930555555</v>
+        <v>44103.99930555555</v>
       </c>
       <c r="C62" t="n">
-        <v>1872</v>
+        <v>1648</v>
       </c>
       <c r="D62" t="n">
-        <v>1865.358959516501</v>
+        <v>1888.968452254904</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7166961882528968</v>
+        <v>1.163746282438643</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6826650328720784</v>
+        <v>1.111261894348164</v>
       </c>
       <c r="G62" t="n">
-        <v>0.7480523567579689</v>
+        <v>1.215287346108646</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>43952.99930555555</v>
+        <v>44102.99930555555</v>
       </c>
       <c r="C63" t="n">
-        <v>1965</v>
+        <v>1494</v>
       </c>
       <c r="D63" t="n">
-        <v>1753.990328365537</v>
+        <v>1812.37585817858</v>
       </c>
       <c r="E63" t="n">
-        <v>0.703411139114111</v>
+        <v>1.134828183129041</v>
       </c>
       <c r="F63" t="n">
-        <v>0.670848249888036</v>
+        <v>1.085189997619506</v>
       </c>
       <c r="G63" t="n">
-        <v>0.736374513331997</v>
+        <v>1.186737828922896</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>43953.99930555555</v>
+        <v>44101.99930555555</v>
       </c>
       <c r="C64" t="n">
-        <v>1900</v>
+        <v>1766</v>
       </c>
       <c r="D64" t="n">
-        <v>1644.223615413202</v>
+        <v>1758.382567982551</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6894799841423139</v>
+        <v>1.117605650303037</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6573971898954588</v>
+        <v>1.067138979593113</v>
       </c>
       <c r="G64" t="n">
-        <v>0.7233745087275933</v>
+        <v>1.170313716426016</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>43954.99930555555</v>
+        <v>44100.99930555555</v>
       </c>
       <c r="C65" t="n">
-        <v>1389</v>
+        <v>1869</v>
       </c>
       <c r="D65" t="n">
-        <v>1538.634560353608</v>
+        <v>1720.234381204748</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6771226206566244</v>
+        <v>1.108672372639422</v>
       </c>
       <c r="F65" t="n">
-        <v>0.6442858321418024</v>
+        <v>1.057007264353415</v>
       </c>
       <c r="G65" t="n">
-        <v>0.7103982393945896</v>
+        <v>1.163167694574195</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>43955.99930555555</v>
+        <v>44099.99930555555</v>
       </c>
       <c r="C66" t="n">
-        <v>1221</v>
+        <v>1912</v>
       </c>
       <c r="D66" t="n">
-        <v>1441.812032248816</v>
+        <v>1690.575492613597</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6666218069622561</v>
+        <v>1.105007472893259</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6324399341094242</v>
+        <v>1.053294175710782</v>
       </c>
       <c r="G66" t="n">
-        <v>0.70120047872572</v>
+        <v>1.1576957389951</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>43956.99930555555</v>
+        <v>44098.99930555555</v>
       </c>
       <c r="C67" t="n">
-        <v>1075</v>
+        <v>1786</v>
       </c>
       <c r="D67" t="n">
-        <v>1356.965275857392</v>
+        <v>1664.168127493205</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6606804530239571</v>
+        <v>1.10182693687144</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6258169667017658</v>
+        <v>1.04609336843081</v>
       </c>
       <c r="G67" t="n">
-        <v>0.6958543469506558</v>
+        <v>1.151529353565651</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>43957.99930555555</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="C68" t="n">
-        <v>1444</v>
+        <v>1640</v>
       </c>
       <c r="D68" t="n">
-        <v>1284.02749071563</v>
+        <v>1639.12451623825</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6597107706502365</v>
+        <v>1.099184889169812</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6243308679387087</v>
+        <v>1.044367875866508</v>
       </c>
       <c r="G68" t="n">
-        <v>0.6953809194197651</v>
+        <v>1.151664507625116</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>43958.99930555555</v>
+        <v>44096.99930555555</v>
       </c>
       <c r="C69" t="n">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="D69" t="n">
-        <v>1219.967635929555</v>
+        <v>1615.924627628339</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6618242174237629</v>
+        <v>1.097389050442872</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6246053181725192</v>
+        <v>1.045013167802066</v>
       </c>
       <c r="G69" t="n">
-        <v>0.6977328280131939</v>
+        <v>1.15257202592938</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>43959.99930555555</v>
+        <v>44095.99930555555</v>
       </c>
       <c r="C70" t="n">
-        <v>1327</v>
+        <v>1350</v>
       </c>
       <c r="D70" t="n">
-        <v>1161.921786651055</v>
+        <v>1595.215580927086</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6659948228813838</v>
+        <v>1.096342243920365</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6274590106485424</v>
+        <v>1.045260198981733</v>
       </c>
       <c r="G70" t="n">
-        <v>0.7039476541240968</v>
+        <v>1.151915464553061</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>43960.99930555555</v>
+        <v>44094.99930555555</v>
       </c>
       <c r="C71" t="n">
-        <v>1083</v>
+        <v>1587</v>
       </c>
       <c r="D71" t="n">
-        <v>1108.724792946132</v>
+        <v>1575.602302843105</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6717106786610817</v>
+        <v>1.095086420858606</v>
       </c>
       <c r="F71" t="n">
-        <v>0.631771452030638</v>
+        <v>1.041657990502468</v>
       </c>
       <c r="G71" t="n">
-        <v>0.7093807935465997</v>
+        <v>1.149385986747628</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>43961.99930555555</v>
+        <v>44093.99930555555</v>
       </c>
       <c r="C72" t="n">
-        <v>802</v>
+        <v>1638</v>
       </c>
       <c r="D72" t="n">
-        <v>1060.631590674411</v>
+        <v>1553.687434295778</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6784982629256264</v>
+        <v>1.091142161832424</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6384294640466479</v>
+        <v>1.035292715807804</v>
       </c>
       <c r="G72" t="n">
-        <v>0.7207308866881021</v>
+        <v>1.14335777685673</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>43962.99930555555</v>
+        <v>44092.99930555555</v>
       </c>
       <c r="C73" t="n">
-        <v>744</v>
+        <v>1907</v>
       </c>
       <c r="D73" t="n">
-        <v>1017.387816747667</v>
+        <v>1526.563388972341</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6862140172966122</v>
+        <v>1.080948628330336</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6433592015689439</v>
+        <v>1.02789431800491</v>
       </c>
       <c r="G73" t="n">
-        <v>0.7279338211151045</v>
+        <v>1.135229471038339</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>43963.99930555555</v>
+        <v>44091.99930555555</v>
       </c>
       <c r="C74" t="n">
-        <v>1402</v>
+        <v>1585</v>
       </c>
       <c r="D74" t="n">
-        <v>976.557587898219</v>
+        <v>1494.190438827317</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6951702776350566</v>
+        <v>1.064762924483975</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6520524443764216</v>
+        <v>1.012280191046107</v>
       </c>
       <c r="G74" t="n">
-        <v>0.738224176325476</v>
+        <v>1.118307441405917</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>43964.99930555555</v>
+        <v>44090.99930555555</v>
       </c>
       <c r="C75" t="n">
-        <v>888</v>
+        <v>1452</v>
       </c>
       <c r="D75" t="n">
-        <v>934.43757533936</v>
+        <v>1460.941668247608</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6995054586553272</v>
+        <v>1.045686580224266</v>
       </c>
       <c r="F75" t="n">
-        <v>0.6557881000459213</v>
+        <v>0.9922500559345929</v>
       </c>
       <c r="G75" t="n">
-        <v>0.7444038779687333</v>
+        <v>1.098328706523909</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>43965.99930555555</v>
+        <v>44089.99930555555</v>
       </c>
       <c r="C76" t="n">
-        <v>992</v>
+        <v>1229</v>
       </c>
       <c r="D76" t="n">
-        <v>889.7050784384519</v>
+        <v>1433.34356552695</v>
       </c>
       <c r="E76" t="n">
-        <v>0.7012148950487214</v>
+        <v>1.029323329113335</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6531801747159026</v>
+        <v>0.9773983099045431</v>
       </c>
       <c r="G76" t="n">
-        <v>0.7454658348736491</v>
+        <v>1.083171979620467</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>43966.99930555555</v>
+        <v>44088.99930555555</v>
       </c>
       <c r="C77" t="n">
-        <v>789</v>
+        <v>1008</v>
       </c>
       <c r="D77" t="n">
-        <v>842.8115419950773</v>
+        <v>1416.928522773327</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6984325288032208</v>
+        <v>1.020769897300392</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6514759723890775</v>
+        <v>0.9683453687847234</v>
       </c>
       <c r="G77" t="n">
-        <v>0.7451988771321019</v>
+        <v>1.074834269951837</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>43967.99930555555</v>
+        <v>44087.99930555555</v>
       </c>
       <c r="C78" t="n">
-        <v>875</v>
+        <v>1458</v>
       </c>
       <c r="D78" t="n">
-        <v>795.8405175773956</v>
+        <v>1413.176741535353</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6932015356388334</v>
+        <v>1.022512249252331</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6454689470376029</v>
+        <v>0.9678678604027046</v>
       </c>
       <c r="G78" t="n">
-        <v>0.7410452437994224</v>
+        <v>1.074559086883915</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>43968.99930555555</v>
+        <v>44086.99930555555</v>
       </c>
       <c r="C79" t="n">
-        <v>675</v>
+        <v>1501</v>
       </c>
       <c r="D79" t="n">
-        <v>751.3426853022132</v>
+        <v>1418.501590061765</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6877136055086025</v>
+        <v>1.03298594022728</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6400321882698252</v>
+        <v>0.9819193804222645</v>
       </c>
       <c r="G79" t="n">
-        <v>0.7375360610001027</v>
+        <v>1.087447379209521</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>43969.99930555555</v>
+        <v>44085.99930555555</v>
       </c>
       <c r="C80" t="n">
-        <v>451</v>
+        <v>1616</v>
       </c>
       <c r="D80" t="n">
-        <v>711.7089407370659</v>
+        <v>1427.324229354185</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6855137674068642</v>
+        <v>1.047810564368739</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6335754764783852</v>
+        <v>0.9939394903431773</v>
       </c>
       <c r="G80" t="n">
-        <v>0.7353563314976668</v>
+        <v>1.103437643350352</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>43970.99930555555</v>
+        <v>44084.99930555555</v>
       </c>
       <c r="C81" t="n">
-        <v>813</v>
+        <v>1597</v>
       </c>
       <c r="D81" t="n">
-        <v>677.7519453934297</v>
+        <v>1434.720017258368</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6868734893752775</v>
+        <v>1.064525787851341</v>
       </c>
       <c r="F81" t="n">
-        <v>0.6340916386023261</v>
+        <v>1.010700352446688</v>
       </c>
       <c r="G81" t="n">
-        <v>0.7373677400799872</v>
+        <v>1.121007338987053</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>43971.99930555555</v>
+        <v>44083.99930555555</v>
       </c>
       <c r="C82" t="n">
-        <v>665</v>
+        <v>1434</v>
       </c>
       <c r="D82" t="n">
-        <v>648.0510564026097</v>
+        <v>1438.239922844773</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6911404892292169</v>
+        <v>1.080682380482971</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6371141299089226</v>
+        <v>1.027213329197193</v>
       </c>
       <c r="G82" t="n">
-        <v>0.7435546266975981</v>
+        <v>1.138577820812497</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>43972.99930555555</v>
+        <v>44082.99930555555</v>
       </c>
       <c r="C83" t="n">
-        <v>642</v>
+        <v>1370</v>
       </c>
       <c r="D83" t="n">
-        <v>620.9043638340218</v>
+        <v>1437.845188432606</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6967088717503427</v>
+        <v>1.096903618923405</v>
       </c>
       <c r="F83" t="n">
-        <v>0.6419519623803681</v>
+        <v>1.039294149153264</v>
       </c>
       <c r="G83" t="n">
-        <v>0.7511876954936699</v>
+        <v>1.152266508305647</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>43973.99930555555</v>
+        <v>44081.99930555555</v>
       </c>
       <c r="C84" t="n">
-        <v>652</v>
+        <v>1108</v>
       </c>
       <c r="D84" t="n">
-        <v>594.928256922492</v>
+        <v>1434.219186033854</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7026416881246491</v>
+        <v>1.112955633713417</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6471829785986317</v>
+        <v>1.057064605778363</v>
       </c>
       <c r="G84" t="n">
-        <v>0.7585989387902647</v>
+        <v>1.17059118868686</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>43974.99930555555</v>
+        <v>44080.99930555555</v>
       </c>
       <c r="C85" t="n">
-        <v>669</v>
+        <v>1297</v>
       </c>
       <c r="D85" t="n">
-        <v>569.4874767184872</v>
+        <v>1427.161679074811</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7060270688756078</v>
+        <v>1.128798048471406</v>
       </c>
       <c r="F85" t="n">
-        <v>0.6458032882810799</v>
+        <v>1.07151521915072</v>
       </c>
       <c r="G85" t="n">
-        <v>0.762977985368928</v>
+        <v>1.187121681432874</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>43975.99930555555</v>
+        <v>44079.99930555555</v>
       </c>
       <c r="C86" t="n">
-        <v>531</v>
+        <v>1694</v>
       </c>
       <c r="D86" t="n">
-        <v>544.9142332540232</v>
+        <v>1414.6715272416</v>
       </c>
       <c r="E86" t="n">
-        <v>0.7099722704444833</v>
+        <v>1.143339919185006</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6510529962948443</v>
+        <v>1.083402927085429</v>
       </c>
       <c r="G86" t="n">
-        <v>0.7692766705142805</v>
+        <v>1.202956221979742</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>43976.99930555555</v>
+        <v>44078.99930555555</v>
       </c>
       <c r="C87" t="n">
-        <v>300</v>
+        <v>1733</v>
       </c>
       <c r="D87" t="n">
-        <v>522.1566259329879</v>
+        <v>1394.871592945744</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7137504799034415</v>
+        <v>1.153526144291282</v>
       </c>
       <c r="F87" t="n">
-        <v>0.6557169853016863</v>
+        <v>1.093832381382905</v>
       </c>
       <c r="G87" t="n">
-        <v>0.7762554283943635</v>
+        <v>1.21487736443729</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>43977.99930555555</v>
+        <v>44077.99930555555</v>
       </c>
       <c r="C88" t="n">
-        <v>397</v>
+        <v>1397</v>
       </c>
       <c r="D88" t="n">
-        <v>501.4318761494759</v>
+        <v>1369.235260863146</v>
       </c>
       <c r="E88" t="n">
-        <v>0.718306417020111</v>
+        <v>1.159981221036663</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6546546623581662</v>
+        <v>1.101687514970929</v>
       </c>
       <c r="G88" t="n">
-        <v>0.7805010260205659</v>
+        <v>1.223080038911937</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>43978.99930555555</v>
+        <v>44076.99930555555</v>
       </c>
       <c r="C89" t="n">
-        <v>584</v>
+        <v>1326</v>
       </c>
       <c r="D89" t="n">
-        <v>481.0187309747744</v>
+        <v>1343.029668384281</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7227198435655202</v>
+        <v>1.169383992353236</v>
       </c>
       <c r="F89" t="n">
-        <v>0.6573929605002593</v>
+        <v>1.107044611944618</v>
       </c>
       <c r="G89" t="n">
-        <v>0.7876114492206701</v>
+        <v>1.232075328534407</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>43979.99930555555</v>
+        <v>44075.99930555555</v>
       </c>
       <c r="C90" t="n">
-        <v>593</v>
+        <v>978</v>
       </c>
       <c r="D90" t="n">
-        <v>458.2714693921788</v>
+        <v>1322.387657864693</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7214682501060062</v>
+        <v>1.187786294076174</v>
       </c>
       <c r="F90" t="n">
-        <v>0.6556910710581996</v>
+        <v>1.123628960758944</v>
       </c>
       <c r="G90" t="n">
-        <v>0.7881070999138331</v>
+        <v>1.251935209806846</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>43980.99930555555</v>
+        <v>44074.99930555555</v>
       </c>
       <c r="C91" t="n">
-        <v>516</v>
+        <v>996</v>
       </c>
       <c r="D91" t="n">
-        <v>431.6781897885292</v>
+        <v>1311.102080178979</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7123702027209377</v>
+        <v>1.223117407030236</v>
       </c>
       <c r="F91" t="n">
-        <v>0.6457348149134082</v>
+        <v>1.159529346376033</v>
       </c>
       <c r="G91" t="n">
-        <v>0.7802645814667194</v>
+        <v>1.288737862717023</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>43981.99930555555</v>
+        <v>44073.99930555555</v>
       </c>
       <c r="C92" t="n">
-        <v>416</v>
+        <v>1365</v>
       </c>
       <c r="D92" t="n">
-        <v>401.8892866366058</v>
+        <v>1307.590394217471</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6942617969232481</v>
+        <v>1.276472816872775</v>
       </c>
       <c r="F92" t="n">
-        <v>0.6273169880437854</v>
+        <v>1.205740918630734</v>
       </c>
       <c r="G92" t="n">
-        <v>0.7627477597723066</v>
+        <v>1.344834890626132</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>43982.99930555555</v>
+        <v>44072.99930555555</v>
       </c>
       <c r="C93" t="n">
-        <v>355</v>
+        <v>1444</v>
       </c>
       <c r="D93" t="n">
-        <v>371.3986373750225</v>
+        <v>1305.333139679099</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6727563800057275</v>
+        <v>1.344258675547082</v>
       </c>
       <c r="F93" t="n">
-        <v>0.6073516729208893</v>
+        <v>1.268089967160276</v>
       </c>
       <c r="G93" t="n">
-        <v>0.7417329313157227</v>
+        <v>1.413146877618967</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>43983.99930555555</v>
+        <v>44071.99930555555</v>
       </c>
       <c r="C94" t="n">
-        <v>178</v>
+        <v>1462</v>
       </c>
       <c r="D94" t="n">
-        <v>343.3816112481258</v>
+        <v>1296.463438860489</v>
       </c>
       <c r="E94" t="n">
-        <v>0.6546704940861795</v>
+        <v>1.421811314270861</v>
       </c>
       <c r="F94" t="n">
-        <v>0.5889122245105948</v>
+        <v>1.344707303983542</v>
       </c>
       <c r="G94" t="n">
-        <v>0.726965742870096</v>
+        <v>1.498847717723274</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>43984.99930555555</v>
+        <v>44070.99930555555</v>
       </c>
       <c r="C95" t="n">
-        <v>318</v>
+        <v>1411</v>
       </c>
       <c r="D95" t="n">
-        <v>320.3918993241417</v>
+        <v>1274.782388978332</v>
       </c>
       <c r="E95" t="n">
-        <v>0.6438750468560592</v>
+        <v>1.501850790035522</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5751523637770188</v>
+        <v>1.42021485492513</v>
       </c>
       <c r="G95" t="n">
-        <v>0.7150281303088322</v>
+        <v>1.58351852606794</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>43985.99930555555</v>
+        <v>44069.99930555555</v>
       </c>
       <c r="C96" t="n">
-        <v>321</v>
+        <v>1367</v>
       </c>
       <c r="D96" t="n">
-        <v>303.2224203797717</v>
+        <v>1237.387806107631</v>
       </c>
       <c r="E96" t="n">
-        <v>0.6447750801387486</v>
+        <v>1.576990982392097</v>
       </c>
       <c r="F96" t="n">
-        <v>0.573980565072334</v>
+        <v>1.491558664475908</v>
       </c>
       <c r="G96" t="n">
-        <v>0.7189396385717578</v>
+        <v>1.669119776963481</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>43986.99930555555</v>
+        <v>44068.99930555555</v>
       </c>
       <c r="C97" t="n">
-        <v>177</v>
+        <v>878</v>
       </c>
       <c r="D97" t="n">
-        <v>291.419993222656</v>
+        <v>1184.667581530299</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6557819999052175</v>
+        <v>1.64454648121344</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5787045221020071</v>
+        <v>1.553720161940987</v>
       </c>
       <c r="G97" t="n">
-        <v>0.730172797023531</v>
+        <v>1.739476799216713</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>43987.99930555555</v>
+        <v>44067.99930555555</v>
       </c>
       <c r="C98" t="n">
-        <v>518</v>
+        <v>953</v>
       </c>
       <c r="D98" t="n">
-        <v>283.8238965234243</v>
+        <v>1118.950880243221</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6775790048603572</v>
+        <v>1.696953248250299</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6005203930446628</v>
+        <v>1.597364380864459</v>
       </c>
       <c r="G98" t="n">
-        <v>0.7564685343957397</v>
+        <v>1.79591768693266</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>43988.99930555555</v>
+        <v>44066.99930555555</v>
       </c>
       <c r="C99" t="n">
-        <v>270</v>
+        <v>1210</v>
       </c>
       <c r="D99" t="n">
-        <v>278.9266880686133</v>
+        <v>1041.873202883022</v>
       </c>
       <c r="E99" t="n">
-        <v>0.7035094299334563</v>
+        <v>1.725627481877013</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6225561622848131</v>
+        <v>1.621263709848733</v>
       </c>
       <c r="G99" t="n">
-        <v>0.7886915271030457</v>
+        <v>1.829283010584223</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>43989.99930555555</v>
+        <v>44065.99930555555</v>
       </c>
       <c r="C100" t="n">
-        <v>197</v>
+        <v>1071</v>
       </c>
       <c r="D100" t="n">
-        <v>276.3792452987703</v>
+        <v>954.8281365958263</v>
       </c>
       <c r="E100" t="n">
-        <v>0.7329990591724869</v>
+        <v>1.723192495181908</v>
       </c>
       <c r="F100" t="n">
-        <v>0.646120152541914</v>
+        <v>1.615773888467157</v>
       </c>
       <c r="G100" t="n">
-        <v>0.8183483510421262</v>
+        <v>1.830587947785777</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>43990.99930555555</v>
+        <v>44064.99930555555</v>
       </c>
       <c r="C101" t="n">
-        <v>280</v>
+        <v>947</v>
       </c>
       <c r="D101" t="n">
-        <v>276.1540103698301</v>
+        <v>861.0785997075602</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7693654752672259</v>
+        <v>1.679603283504604</v>
       </c>
       <c r="F101" t="n">
-        <v>0.6792297832114285</v>
+        <v>1.569192113727869</v>
       </c>
       <c r="G101" t="n">
-        <v>0.8605981010218408</v>
+        <v>1.788468539880436</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>43991.99930555555</v>
+        <v>44063.99930555555</v>
       </c>
       <c r="C102" t="n">
-        <v>283</v>
+        <v>845</v>
       </c>
       <c r="D102" t="n">
-        <v>277.7975102342952</v>
+        <v>766.1968289587612</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8101095161247328</v>
+        <v>1.59822359769173</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7166580423733173</v>
+        <v>1.481574544425126</v>
       </c>
       <c r="G102" t="n">
-        <v>0.9055291762112588</v>
+        <v>1.704432199014293</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>43992.99930555555</v>
+        <v>44062.99930555555</v>
       </c>
       <c r="C103" t="n">
-        <v>202</v>
+        <v>642</v>
       </c>
       <c r="D103" t="n">
-        <v>280.4766886712735</v>
+        <v>677.342650498454</v>
       </c>
       <c r="E103" t="n">
-        <v>0.8478764058505427</v>
+        <v>1.492615716820597</v>
       </c>
       <c r="F103" t="n">
-        <v>0.7507375775767275</v>
+        <v>1.379460699033074</v>
       </c>
       <c r="G103" t="n">
-        <v>0.9502261841933184</v>
+        <v>1.601483180789527</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>43993.99930555555</v>
+        <v>44061.99930555555</v>
       </c>
       <c r="C104" t="n">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="D104" t="n">
-        <v>282.9867689759678</v>
+        <v>601.6825358226162</v>
       </c>
       <c r="E104" t="n">
-        <v>0.8850482680486199</v>
+        <v>1.388473985937507</v>
       </c>
       <c r="F104" t="n">
-        <v>0.7854161913515292</v>
+        <v>1.279677121194175</v>
       </c>
       <c r="G104" t="n">
-        <v>0.9908214392521848</v>
+        <v>1.501737200422604</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>43994.99930555555</v>
+        <v>44060.99930555555</v>
       </c>
       <c r="C105" t="n">
-        <v>163</v>
+        <v>320</v>
       </c>
       <c r="D105" t="n">
-        <v>283.7070508285013</v>
+        <v>544.0706124726875</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9122095604586283</v>
+        <v>1.302597780335526</v>
       </c>
       <c r="F105" t="n">
-        <v>0.8072204232464457</v>
+        <v>1.197829845790979</v>
       </c>
       <c r="G105" t="n">
-        <v>1.018631918479711</v>
+        <v>1.414101451779437</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>43995.99930555555</v>
+        <v>44059.99930555555</v>
       </c>
       <c r="C106" t="n">
-        <v>346</v>
+        <v>479</v>
       </c>
       <c r="D106" t="n">
-        <v>281.3415229023371</v>
+        <v>505.0831145468554</v>
       </c>
       <c r="E106" t="n">
-        <v>0.921956671173658</v>
+        <v>1.249959477028509</v>
       </c>
       <c r="F106" t="n">
-        <v>0.8203793533760037</v>
+        <v>1.13903272819397</v>
       </c>
       <c r="G106" t="n">
-        <v>1.033310343442542</v>
+        <v>1.357791060364059</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>43996.99930555555</v>
+        <v>44058.99930555555</v>
       </c>
       <c r="C107" t="n">
-        <v>338</v>
+        <v>629</v>
       </c>
       <c r="D107" t="n">
-        <v>274.6993357885203</v>
+        <v>481.059659102739</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9177466786127665</v>
+        <v>1.228663415680231</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8116327244980681</v>
+        <v>1.114800088365558</v>
       </c>
       <c r="G107" t="n">
-        <v>1.025668119617905</v>
+        <v>1.337160614963369</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>43997.99930555555</v>
+        <v>44057.99930555555</v>
       </c>
       <c r="C108" t="n">
-        <v>303</v>
+        <v>574</v>
       </c>
       <c r="D108" t="n">
-        <v>263.6823574203484</v>
+        <v>466.3852210934814</v>
       </c>
       <c r="E108" t="n">
-        <v>0.8960896836871598</v>
+        <v>1.232509167585141</v>
       </c>
       <c r="F108" t="n">
-        <v>0.7874147900190098</v>
+        <v>1.122064183191448</v>
       </c>
       <c r="G108" t="n">
-        <v>1.003710427142176</v>
+        <v>1.344106923194359</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>43998.99930555555</v>
+        <v>44056.99930555555</v>
       </c>
       <c r="C109" t="n">
-        <v>210</v>
+        <v>523</v>
       </c>
       <c r="D109" t="n">
-        <v>249.6260870326578</v>
+        <v>456.0529412747832</v>
       </c>
       <c r="E109" t="n">
-        <v>0.8634644755912193</v>
+        <v>1.249271038143182</v>
       </c>
       <c r="F109" t="n">
-        <v>0.7609220497398335</v>
+        <v>1.137086604491465</v>
       </c>
       <c r="G109" t="n">
-        <v>0.9725623430120777</v>
+        <v>1.363626344643679</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>43999.99930555555</v>
+        <v>44055.99930555555</v>
       </c>
       <c r="C110" t="n">
-        <v>329</v>
+        <v>481</v>
       </c>
       <c r="D110" t="n">
-        <v>235.0076234889472</v>
+        <v>446.7475391984774</v>
       </c>
       <c r="E110" t="n">
-        <v>0.8275875469122639</v>
+        <v>1.272872171420256</v>
       </c>
       <c r="F110" t="n">
-        <v>0.7225666547021282</v>
+        <v>1.155915416182118</v>
       </c>
       <c r="G110" t="n">
-        <v>0.9328274320823108</v>
+        <v>1.391852091978891</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>44000.99930555555</v>
+        <v>44054.99930555555</v>
       </c>
       <c r="C111" t="n">
-        <v>333</v>
+        <v>412</v>
       </c>
       <c r="D111" t="n">
-        <v>222.7804288149193</v>
+        <v>436.8525727312109</v>
       </c>
       <c r="E111" t="n">
-        <v>0.804908975070649</v>
+        <v>1.296350800665307</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6965061355257602</v>
+        <v>1.173445309377225</v>
       </c>
       <c r="G111" t="n">
-        <v>0.9063755243133655</v>
+        <v>1.417872407883678</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>44001.99930555555</v>
+        <v>44053.99930555555</v>
       </c>
       <c r="C112" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D112" t="n">
-        <v>216.1053470358905</v>
+        <v>425.7982179107317</v>
       </c>
       <c r="E112" t="n">
-        <v>0.8008202301291317</v>
+        <v>1.319194345242251</v>
       </c>
       <c r="F112" t="n">
-        <v>0.6982164822131336</v>
+        <v>1.191399964374218</v>
       </c>
       <c r="G112" t="n">
-        <v>0.9144576775840036</v>
+        <v>1.444857274843385</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>44002.99930555555</v>
+        <v>44052.99930555555</v>
       </c>
       <c r="C113" t="n">
-        <v>262</v>
+        <v>463</v>
       </c>
       <c r="D113" t="n">
-        <v>217.15173840695</v>
+        <v>413.1165376773303</v>
       </c>
       <c r="E113" t="n">
-        <v>0.8287430026852199</v>
+        <v>1.33488346637218</v>
       </c>
       <c r="F113" t="n">
-        <v>0.7218924401184718</v>
+        <v>1.210434004965435</v>
       </c>
       <c r="G113" t="n">
-        <v>0.9360049607629467</v>
+        <v>1.463547728888557</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>44003.99930555555</v>
+        <v>44051.99930555555</v>
       </c>
       <c r="C114" t="n">
-        <v>224</v>
+        <v>347</v>
       </c>
       <c r="D114" t="n">
-        <v>224.8163537080909</v>
+        <v>397.7452659136842</v>
       </c>
       <c r="E114" t="n">
-        <v>0.8834024731154894</v>
+        <v>1.341972619361088</v>
       </c>
       <c r="F114" t="n">
-        <v>0.7725545855534607</v>
+        <v>1.207657172212748</v>
       </c>
       <c r="G114" t="n">
-        <v>1.001731439395747</v>
+        <v>1.470979919928653</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>44004.99930555555</v>
+        <v>44050.99930555555</v>
       </c>
       <c r="C115" t="n">
-        <v>218</v>
+        <v>552</v>
       </c>
       <c r="D115" t="n">
-        <v>236.0833166670146</v>
+        <v>378.9995881858924</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9491505434505432</v>
+        <v>1.329097529837471</v>
       </c>
       <c r="F115" t="n">
-        <v>0.8300373308361728</v>
+        <v>1.197788423532084</v>
       </c>
       <c r="G115" t="n">
-        <v>1.068756708865873</v>
+        <v>1.46289898832473</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>44005.99930555555</v>
+        <v>44049.99930555555</v>
       </c>
       <c r="C116" t="n">
-        <v>122</v>
+        <v>402</v>
       </c>
       <c r="D116" t="n">
-        <v>246.915597621706</v>
+        <v>357.0450765573408</v>
       </c>
       <c r="E116" t="n">
-        <v>1.010465981829506</v>
+        <v>1.29427739547454</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8815336863998628</v>
+        <v>1.160730138787249</v>
       </c>
       <c r="G116" t="n">
-        <v>1.13165224949129</v>
+        <v>1.431412660871331</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>44006.99930555555</v>
+        <v>44048.99930555555</v>
       </c>
       <c r="C117" t="n">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="D117" t="n">
-        <v>253.1546763239815</v>
+        <v>333.8780671608999</v>
       </c>
       <c r="E117" t="n">
-        <v>1.044583533992999</v>
+        <v>1.245221521585108</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9145157579647901</v>
+        <v>1.115949397872822</v>
       </c>
       <c r="G117" t="n">
-        <v>1.169522077286024</v>
+        <v>1.380693152748131</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>44007.99930555555</v>
+        <v>44047.99930555555</v>
       </c>
       <c r="C118" t="n">
-        <v>296</v>
+        <v>190</v>
       </c>
       <c r="D118" t="n">
-        <v>251.5710037270387</v>
+        <v>312.5760625173565</v>
       </c>
       <c r="E118" t="n">
-        <v>1.042883288537545</v>
+        <v>1.194310109865683</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9181322048769068</v>
+        <v>1.064487762525471</v>
       </c>
       <c r="G118" t="n">
-        <v>1.17194963957965</v>
+        <v>1.323227695528377</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>44008.99930555555</v>
+        <v>44046.99930555555</v>
       </c>
       <c r="C119" t="n">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="D119" t="n">
-        <v>242.2536365769132</v>
+        <v>296.1085578548989</v>
       </c>
       <c r="E119" t="n">
-        <v>1.001218185576417</v>
+        <v>1.150391238398083</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8728146863943743</v>
+        <v>1.020300310041901</v>
       </c>
       <c r="G119" t="n">
-        <v>1.124708003168836</v>
+        <v>1.279213728822441</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>44009.99930555555</v>
+        <v>44045.99930555555</v>
       </c>
       <c r="C120" t="n">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="D120" t="n">
-        <v>227.7614186025018</v>
+        <v>285.6466555124387</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9440841735271076</v>
+        <v>1.130950098891662</v>
       </c>
       <c r="F120" t="n">
-        <v>0.825067362082982</v>
+        <v>1.001037781208899</v>
       </c>
       <c r="G120" t="n">
-        <v>1.06631703047974</v>
+        <v>1.257418787768886</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>44010.99930555555</v>
+        <v>44044.99930555555</v>
       </c>
       <c r="C121" t="n">
-        <v>174</v>
+        <v>295</v>
       </c>
       <c r="D121" t="n">
-        <v>211.8298719259004</v>
+        <v>280.0984479777005</v>
       </c>
       <c r="E121" t="n">
-        <v>0.8833051958118658</v>
+        <v>1.126615805215327</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7677689029562389</v>
+        <v>1.0015361216114</v>
       </c>
       <c r="G121" t="n">
-        <v>1.001800998478013</v>
+        <v>1.261324823058791</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>44011.99930555555</v>
+        <v>44043.99930555555</v>
       </c>
       <c r="C122" t="n">
-        <v>126</v>
+        <v>379</v>
       </c>
       <c r="D122" t="n">
-        <v>197.9506255917363</v>
+        <v>277.0154812399329</v>
       </c>
       <c r="E122" t="n">
-        <v>0.8347819870973424</v>
+        <v>1.136070840894101</v>
       </c>
       <c r="F122" t="n">
-        <v>0.7225411248407221</v>
+        <v>1.006747318160292</v>
       </c>
       <c r="G122" t="n">
-        <v>0.9577879247100327</v>
+        <v>1.273127313393254</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>44012.99930555555</v>
+        <v>44042.99930555555</v>
       </c>
       <c r="C123" t="n">
-        <v>142</v>
+        <v>386</v>
       </c>
       <c r="D123" t="n">
-        <v>188.4784500154893</v>
+        <v>273.9756820236872</v>
       </c>
       <c r="E123" t="n">
-        <v>0.8083337993143165</v>
+        <v>1.146334470945373</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6996706028750922</v>
+        <v>1.011800472207505</v>
       </c>
       <c r="G123" t="n">
-        <v>0.9292987471399161</v>
+        <v>1.282433197648667</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>44013.99930555555</v>
+        <v>44041.99930555555</v>
       </c>
       <c r="C124" t="n">
-        <v>187</v>
+        <v>289</v>
       </c>
       <c r="D124" t="n">
-        <v>184.1166035724167</v>
+        <v>269.8172772443027</v>
       </c>
       <c r="E124" t="n">
-        <v>0.8101740466420033</v>
+        <v>1.153214863706503</v>
       </c>
       <c r="F124" t="n">
-        <v>0.6965192138129961</v>
+        <v>1.017383664814059</v>
       </c>
       <c r="G124" t="n">
-        <v>0.9281788845050588</v>
+        <v>1.291204601410355</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>44014.99930555555</v>
+        <v>44040.99930555555</v>
       </c>
       <c r="C125" t="n">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D125" t="n">
-        <v>184.1216834565362</v>
+        <v>264.852846224422</v>
       </c>
       <c r="E125" t="n">
-        <v>0.8325566824749</v>
+        <v>1.154922287327338</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7117992781680502</v>
+        <v>1.018575877127873</v>
       </c>
       <c r="G125" t="n">
-        <v>0.9509316841925096</v>
+        <v>1.28900262251197</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>44015.99930555555</v>
+        <v>44039.99930555555</v>
       </c>
       <c r="C126" t="n">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="D126" t="n">
-        <v>186.9732325072746</v>
+        <v>260.0031748199859</v>
       </c>
       <c r="E126" t="n">
-        <v>0.8684250520485824</v>
+        <v>1.158474269421861</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7479580666427207</v>
+        <v>1.021290667924465</v>
       </c>
       <c r="G126" t="n">
-        <v>0.9949892355049915</v>
+        <v>1.297660848829148</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>44016.99930555555</v>
+        <v>44038.99930555555</v>
       </c>
       <c r="C127" t="n">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="D127" t="n">
-        <v>191.0645707397227</v>
+        <v>255.7492131759964</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9091428726761556</v>
+        <v>1.166236819721718</v>
       </c>
       <c r="F127" t="n">
-        <v>0.788180539375419</v>
+        <v>1.025313925577326</v>
       </c>
       <c r="G127" t="n">
-        <v>1.042751665822744</v>
+        <v>1.312301429164329</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>44017.99930555555</v>
+        <v>44037.99930555555</v>
       </c>
       <c r="C128" t="n">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c r="D128" t="n">
-        <v>195.2247835744745</v>
+        <v>251.7126487646981</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9469585029938675</v>
+        <v>1.173649325381265</v>
       </c>
       <c r="F128" t="n">
-        <v>0.8161128941447859</v>
+        <v>1.032480901857612</v>
       </c>
       <c r="G128" t="n">
-        <v>1.076203254882378</v>
+        <v>1.317671761862673</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>44018.99930555555</v>
+        <v>44036.99930555555</v>
       </c>
       <c r="C129" t="n">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="D129" t="n">
-        <v>198.8804706685128</v>
+        <v>247.1564403393146</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9814496586150019</v>
+        <v>1.175470438037563</v>
       </c>
       <c r="F129" t="n">
-        <v>0.8473192518952978</v>
+        <v>1.029965530184008</v>
       </c>
       <c r="G129" t="n">
-        <v>1.115379763621723</v>
+        <v>1.315636710107161</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>44019.99930555555</v>
+        <v>44035.99930555555</v>
       </c>
       <c r="C130" t="n">
-        <v>138</v>
+        <v>306</v>
       </c>
       <c r="D130" t="n">
-        <v>201.7781522158499</v>
+        <v>241.5028578413335</v>
       </c>
       <c r="E130" t="n">
-        <v>1.005861716553389</v>
+        <v>1.17461765865406</v>
       </c>
       <c r="F130" t="n">
-        <v>0.8659122630744245</v>
+        <v>1.026700660718056</v>
       </c>
       <c r="G130" t="n">
-        <v>1.146054336307946</v>
+        <v>1.315877947235052</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>44020.99930555555</v>
+        <v>44034.99930555555</v>
       </c>
       <c r="C131" t="n">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="D131" t="n">
-        <v>203.7388931933989</v>
+        <v>234.6286774544937</v>
       </c>
       <c r="E131" t="n">
-        <v>1.022673062749908</v>
+        <v>1.161060411180184</v>
       </c>
       <c r="F131" t="n">
-        <v>0.8835197048865477</v>
+        <v>1.014476211620966</v>
       </c>
       <c r="G131" t="n">
-        <v>1.163418636468024</v>
+        <v>1.313607469861521</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>44021.99930555555</v>
+        <v>44033.99930555555</v>
       </c>
       <c r="C132" t="n">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="D132" t="n">
-        <v>204.3217426137349</v>
+        <v>227.111925004018</v>
       </c>
       <c r="E132" t="n">
-        <v>1.025014223393874</v>
+        <v>1.137001972932147</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8890732227506277</v>
+        <v>0.9892317233331946</v>
       </c>
       <c r="G132" t="n">
-        <v>1.168534961814878</v>
+        <v>1.282851990111957</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>44022.99930555555</v>
+        <v>44032.99930555555</v>
       </c>
       <c r="C133" t="n">
-        <v>276</v>
+        <v>190</v>
       </c>
       <c r="D133" t="n">
-        <v>203.1349561881383</v>
+        <v>219.8336394499138</v>
       </c>
       <c r="E133" t="n">
-        <v>1.021342292496073</v>
+        <v>1.115786370658242</v>
       </c>
       <c r="F133" t="n">
-        <v>0.8831807142984339</v>
+        <v>0.9752433744826932</v>
       </c>
       <c r="G133" t="n">
-        <v>1.160325157693242</v>
+        <v>1.269508999858824</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>44023.99930555555</v>
+        <v>44031.99930555555</v>
       </c>
       <c r="C134" t="n">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="D134" t="n">
-        <v>200.2546486088378</v>
+        <v>213.1259303348314</v>
       </c>
       <c r="E134" t="n">
-        <v>1.004610701123738</v>
+        <v>1.087585276583006</v>
       </c>
       <c r="F134" t="n">
-        <v>0.8650993795023985</v>
+        <v>0.9364642283041982</v>
       </c>
       <c r="G134" t="n">
-        <v>1.141837630098817</v>
+        <v>1.230519615879977</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>44024.99930555555</v>
+        <v>44030.99930555555</v>
       </c>
       <c r="C135" t="n">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D135" t="n">
-        <v>196.5465816604639</v>
+        <v>206.9111442751631</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9902054094493059</v>
+        <v>1.059772239501811</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8545993428287978</v>
+        <v>0.9145331388301775</v>
       </c>
       <c r="G135" t="n">
-        <v>1.126555189286888</v>
+        <v>1.201103799751017</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>44025.99930555555</v>
+        <v>44029.99930555555</v>
       </c>
       <c r="C136" t="n">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="D136" t="n">
-        <v>193.2593673590965</v>
+        <v>201.1393940861146</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9725050040066994</v>
+        <v>1.029495054736719</v>
       </c>
       <c r="F136" t="n">
-        <v>0.8399361099620267</v>
+        <v>0.8926372808100526</v>
       </c>
       <c r="G136" t="n">
-        <v>1.1196529436694</v>
+        <v>1.174227849504676</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>44026.99930555555</v>
+        <v>44028.99930555555</v>
       </c>
       <c r="C137" t="n">
-        <v>114</v>
+        <v>230</v>
       </c>
       <c r="D137" t="n">
-        <v>191.7401902697292</v>
+        <v>196.1773305107464</v>
       </c>
       <c r="E137" t="n">
-        <v>0.9705240744388063</v>
+        <v>1.00061909261315</v>
       </c>
       <c r="F137" t="n">
-        <v>0.8360813415362093</v>
+        <v>0.8540813154113339</v>
       </c>
       <c r="G137" t="n">
-        <v>1.104475377226303</v>
+        <v>1.138705073489484</v>
       </c>
     </row>
     <row r="138">
@@ -3623,3130 +3623,3130 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>44028.99930555555</v>
+        <v>44026.99930555555</v>
       </c>
       <c r="C139" t="n">
-        <v>230</v>
+        <v>114</v>
       </c>
       <c r="D139" t="n">
-        <v>196.1773305107464</v>
+        <v>191.7401902697292</v>
       </c>
       <c r="E139" t="n">
-        <v>1.00061909261315</v>
+        <v>0.9705240744388063</v>
       </c>
       <c r="F139" t="n">
-        <v>0.8540813154113339</v>
+        <v>0.8360813415362093</v>
       </c>
       <c r="G139" t="n">
-        <v>1.138705073489484</v>
+        <v>1.104475377226303</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>44029.99930555555</v>
+        <v>44025.99930555555</v>
       </c>
       <c r="C140" t="n">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="D140" t="n">
-        <v>201.1393940861146</v>
+        <v>193.2593673590965</v>
       </c>
       <c r="E140" t="n">
-        <v>1.029495054736719</v>
+        <v>0.9725050040066994</v>
       </c>
       <c r="F140" t="n">
-        <v>0.8926372808100526</v>
+        <v>0.8399361099620267</v>
       </c>
       <c r="G140" t="n">
-        <v>1.174227849504676</v>
+        <v>1.1196529436694</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>44030.99930555555</v>
+        <v>44024.99930555555</v>
       </c>
       <c r="C141" t="n">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D141" t="n">
-        <v>206.9111442751631</v>
+        <v>196.5465816604639</v>
       </c>
       <c r="E141" t="n">
-        <v>1.059772239501811</v>
+        <v>0.9902054094493059</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9145331388301775</v>
+        <v>0.8545993428287978</v>
       </c>
       <c r="G141" t="n">
-        <v>1.201103799751017</v>
+        <v>1.126555189286888</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>44031.99930555555</v>
+        <v>44023.99930555555</v>
       </c>
       <c r="C142" t="n">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="D142" t="n">
-        <v>213.1259303348314</v>
+        <v>200.2546486088378</v>
       </c>
       <c r="E142" t="n">
-        <v>1.087585276583006</v>
+        <v>1.004610701123738</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9364642283041982</v>
+        <v>0.8650993795023985</v>
       </c>
       <c r="G142" t="n">
-        <v>1.230519615879977</v>
+        <v>1.141837630098817</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>44032.99930555555</v>
+        <v>44022.99930555555</v>
       </c>
       <c r="C143" t="n">
-        <v>190</v>
+        <v>276</v>
       </c>
       <c r="D143" t="n">
-        <v>219.8336394499138</v>
+        <v>203.1349561881383</v>
       </c>
       <c r="E143" t="n">
-        <v>1.115786370658242</v>
+        <v>1.021342292496073</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9752433744826932</v>
+        <v>0.8831807142984339</v>
       </c>
       <c r="G143" t="n">
-        <v>1.269508999858824</v>
+        <v>1.160325157693242</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>44033.99930555555</v>
+        <v>44021.99930555555</v>
       </c>
       <c r="C144" t="n">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c r="D144" t="n">
-        <v>227.111925004018</v>
+        <v>204.3217426137349</v>
       </c>
       <c r="E144" t="n">
-        <v>1.137001972932147</v>
+        <v>1.025014223393874</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9892317233331946</v>
+        <v>0.8890732227506277</v>
       </c>
       <c r="G144" t="n">
-        <v>1.282851990111957</v>
+        <v>1.168534961814878</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>44034.99930555555</v>
+        <v>44020.99930555555</v>
       </c>
       <c r="C145" t="n">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c r="D145" t="n">
-        <v>234.6286774544937</v>
+        <v>203.7388931933989</v>
       </c>
       <c r="E145" t="n">
-        <v>1.161060411180184</v>
+        <v>1.022673062749908</v>
       </c>
       <c r="F145" t="n">
-        <v>1.014476211620966</v>
+        <v>0.8835197048865477</v>
       </c>
       <c r="G145" t="n">
-        <v>1.313607469861521</v>
+        <v>1.163418636468024</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>44035.99930555555</v>
+        <v>44019.99930555555</v>
       </c>
       <c r="C146" t="n">
-        <v>306</v>
+        <v>138</v>
       </c>
       <c r="D146" t="n">
-        <v>241.5028578413335</v>
+        <v>201.7781522158499</v>
       </c>
       <c r="E146" t="n">
-        <v>1.17461765865406</v>
+        <v>1.005861716553389</v>
       </c>
       <c r="F146" t="n">
-        <v>1.026700660718056</v>
+        <v>0.8659122630744245</v>
       </c>
       <c r="G146" t="n">
-        <v>1.315877947235052</v>
+        <v>1.146054336307946</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>44036.99930555555</v>
+        <v>44018.99930555555</v>
       </c>
       <c r="C147" t="n">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="D147" t="n">
-        <v>247.1564403393146</v>
+        <v>198.8804706685128</v>
       </c>
       <c r="E147" t="n">
-        <v>1.175470438037563</v>
+        <v>0.9814496586150019</v>
       </c>
       <c r="F147" t="n">
-        <v>1.029965530184008</v>
+        <v>0.8473192518952978</v>
       </c>
       <c r="G147" t="n">
-        <v>1.315636710107161</v>
+        <v>1.115379763621723</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>44037.99930555555</v>
+        <v>44017.99930555555</v>
       </c>
       <c r="C148" t="n">
-        <v>275</v>
+        <v>192</v>
       </c>
       <c r="D148" t="n">
-        <v>251.7126487646981</v>
+        <v>195.2247835744745</v>
       </c>
       <c r="E148" t="n">
-        <v>1.173649325381265</v>
+        <v>0.9469585029938675</v>
       </c>
       <c r="F148" t="n">
-        <v>1.032480901857612</v>
+        <v>0.8161128941447859</v>
       </c>
       <c r="G148" t="n">
-        <v>1.317671761862673</v>
+        <v>1.076203254882378</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>44038.99930555555</v>
+        <v>44016.99930555555</v>
       </c>
       <c r="C149" t="n">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="D149" t="n">
-        <v>255.7492131759964</v>
+        <v>191.0645707397227</v>
       </c>
       <c r="E149" t="n">
-        <v>1.166236819721718</v>
+        <v>0.9091428726761556</v>
       </c>
       <c r="F149" t="n">
-        <v>1.025313925577326</v>
+        <v>0.788180539375419</v>
       </c>
       <c r="G149" t="n">
-        <v>1.312301429164329</v>
+        <v>1.042751665822744</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>44039.99930555555</v>
+        <v>44015.99930555555</v>
       </c>
       <c r="C150" t="n">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="D150" t="n">
-        <v>260.0031748199859</v>
+        <v>186.9732325072746</v>
       </c>
       <c r="E150" t="n">
-        <v>1.158474269421861</v>
+        <v>0.8684250520485824</v>
       </c>
       <c r="F150" t="n">
-        <v>1.021290667924465</v>
+        <v>0.7479580666427207</v>
       </c>
       <c r="G150" t="n">
-        <v>1.297660848829148</v>
+        <v>0.9949892355049915</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>44040.99930555555</v>
+        <v>44014.99930555555</v>
       </c>
       <c r="C151" t="n">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D151" t="n">
-        <v>264.852846224422</v>
+        <v>184.1216834565362</v>
       </c>
       <c r="E151" t="n">
-        <v>1.154922287327338</v>
+        <v>0.8325566824749</v>
       </c>
       <c r="F151" t="n">
-        <v>1.018575877127873</v>
+        <v>0.7117992781680502</v>
       </c>
       <c r="G151" t="n">
-        <v>1.28900262251197</v>
+        <v>0.9509316841925096</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>44041.99930555555</v>
+        <v>44013.99930555555</v>
       </c>
       <c r="C152" t="n">
-        <v>289</v>
+        <v>187</v>
       </c>
       <c r="D152" t="n">
-        <v>269.8172772443027</v>
+        <v>184.1166035724167</v>
       </c>
       <c r="E152" t="n">
-        <v>1.153214863706503</v>
+        <v>0.8101740466420033</v>
       </c>
       <c r="F152" t="n">
-        <v>1.017383664814059</v>
+        <v>0.6965192138129961</v>
       </c>
       <c r="G152" t="n">
-        <v>1.291204601410355</v>
+        <v>0.9281788845050588</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>44042.99930555555</v>
+        <v>44012.99930555555</v>
       </c>
       <c r="C153" t="n">
-        <v>386</v>
+        <v>142</v>
       </c>
       <c r="D153" t="n">
-        <v>273.9756820236872</v>
+        <v>188.4784500154893</v>
       </c>
       <c r="E153" t="n">
-        <v>1.146334470945373</v>
+        <v>0.8083337993143165</v>
       </c>
       <c r="F153" t="n">
-        <v>1.011800472207505</v>
+        <v>0.6996706028750922</v>
       </c>
       <c r="G153" t="n">
-        <v>1.282433197648667</v>
+        <v>0.9292987471399161</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>44043.99930555555</v>
+        <v>44011.99930555555</v>
       </c>
       <c r="C154" t="n">
-        <v>379</v>
+        <v>126</v>
       </c>
       <c r="D154" t="n">
-        <v>277.0154812399329</v>
+        <v>197.9506255917363</v>
       </c>
       <c r="E154" t="n">
-        <v>1.136070840894101</v>
+        <v>0.8347819870973424</v>
       </c>
       <c r="F154" t="n">
-        <v>1.006747318160292</v>
+        <v>0.7225411248407221</v>
       </c>
       <c r="G154" t="n">
-        <v>1.273127313393254</v>
+        <v>0.9577879247100327</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>44044.99930555555</v>
+        <v>44010.99930555555</v>
       </c>
       <c r="C155" t="n">
-        <v>295</v>
+        <v>174</v>
       </c>
       <c r="D155" t="n">
-        <v>280.0984479777005</v>
+        <v>211.8298719259004</v>
       </c>
       <c r="E155" t="n">
-        <v>1.126615805215327</v>
+        <v>0.8833051958118658</v>
       </c>
       <c r="F155" t="n">
-        <v>1.0015361216114</v>
+        <v>0.7677689029562389</v>
       </c>
       <c r="G155" t="n">
-        <v>1.261324823058791</v>
+        <v>1.001800998478013</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>44045.99930555555</v>
+        <v>44009.99930555555</v>
       </c>
       <c r="C156" t="n">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="D156" t="n">
-        <v>285.6466555124387</v>
+        <v>227.7614186025018</v>
       </c>
       <c r="E156" t="n">
-        <v>1.130950098891662</v>
+        <v>0.9440841735271076</v>
       </c>
       <c r="F156" t="n">
-        <v>1.001037781208899</v>
+        <v>0.825067362082982</v>
       </c>
       <c r="G156" t="n">
-        <v>1.257418787768886</v>
+        <v>1.06631703047974</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>44046.99930555555</v>
+        <v>44008.99930555555</v>
       </c>
       <c r="C157" t="n">
-        <v>159</v>
+        <v>259</v>
       </c>
       <c r="D157" t="n">
-        <v>296.1085578548989</v>
+        <v>242.2536365769132</v>
       </c>
       <c r="E157" t="n">
-        <v>1.150391238398083</v>
+        <v>1.001218185576417</v>
       </c>
       <c r="F157" t="n">
-        <v>1.020300310041901</v>
+        <v>0.8728146863943743</v>
       </c>
       <c r="G157" t="n">
-        <v>1.279213728822441</v>
+        <v>1.124708003168836</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>44047.99930555555</v>
+        <v>44007.99930555555</v>
       </c>
       <c r="C158" t="n">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="D158" t="n">
-        <v>312.5760625173565</v>
+        <v>251.5710037270387</v>
       </c>
       <c r="E158" t="n">
-        <v>1.194310109865683</v>
+        <v>1.042883288537545</v>
       </c>
       <c r="F158" t="n">
-        <v>1.064487762525471</v>
+        <v>0.9181322048769068</v>
       </c>
       <c r="G158" t="n">
-        <v>1.323227695528377</v>
+        <v>1.17194963957965</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>44048.99930555555</v>
+        <v>44006.99930555555</v>
       </c>
       <c r="C159" t="n">
-        <v>384</v>
+        <v>190</v>
       </c>
       <c r="D159" t="n">
-        <v>333.8780671608999</v>
+        <v>253.1546763239815</v>
       </c>
       <c r="E159" t="n">
-        <v>1.245221521585108</v>
+        <v>1.044583533992999</v>
       </c>
       <c r="F159" t="n">
-        <v>1.115949397872822</v>
+        <v>0.9145157579647901</v>
       </c>
       <c r="G159" t="n">
-        <v>1.380693152748131</v>
+        <v>1.169522077286024</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>44049.99930555555</v>
+        <v>44005.99930555555</v>
       </c>
       <c r="C160" t="n">
-        <v>402</v>
+        <v>122</v>
       </c>
       <c r="D160" t="n">
-        <v>357.0450765573408</v>
+        <v>246.915597621706</v>
       </c>
       <c r="E160" t="n">
-        <v>1.29427739547454</v>
+        <v>1.010465981829506</v>
       </c>
       <c r="F160" t="n">
-        <v>1.160730138787249</v>
+        <v>0.8815336863998628</v>
       </c>
       <c r="G160" t="n">
-        <v>1.431412660871331</v>
+        <v>1.13165224949129</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>44050.99930555555</v>
+        <v>44004.99930555555</v>
       </c>
       <c r="C161" t="n">
-        <v>552</v>
+        <v>218</v>
       </c>
       <c r="D161" t="n">
-        <v>378.9995881858924</v>
+        <v>236.0833166670146</v>
       </c>
       <c r="E161" t="n">
-        <v>1.329097529837471</v>
+        <v>0.9491505434505432</v>
       </c>
       <c r="F161" t="n">
-        <v>1.197788423532084</v>
+        <v>0.8300373308361728</v>
       </c>
       <c r="G161" t="n">
-        <v>1.46289898832473</v>
+        <v>1.068756708865873</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>44051.99930555555</v>
+        <v>44003.99930555555</v>
       </c>
       <c r="C162" t="n">
-        <v>347</v>
+        <v>224</v>
       </c>
       <c r="D162" t="n">
-        <v>397.7452659136842</v>
+        <v>224.8163537080909</v>
       </c>
       <c r="E162" t="n">
-        <v>1.341972619361088</v>
+        <v>0.8834024731154894</v>
       </c>
       <c r="F162" t="n">
-        <v>1.207657172212748</v>
+        <v>0.7725545855534607</v>
       </c>
       <c r="G162" t="n">
-        <v>1.470979919928653</v>
+        <v>1.001731439395747</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>44052.99930555555</v>
+        <v>44002.99930555555</v>
       </c>
       <c r="C163" t="n">
-        <v>463</v>
+        <v>262</v>
       </c>
       <c r="D163" t="n">
-        <v>413.1165376773303</v>
+        <v>217.15173840695</v>
       </c>
       <c r="E163" t="n">
-        <v>1.33488346637218</v>
+        <v>0.8287430026852199</v>
       </c>
       <c r="F163" t="n">
-        <v>1.210434004965435</v>
+        <v>0.7218924401184718</v>
       </c>
       <c r="G163" t="n">
-        <v>1.463547728888557</v>
+        <v>0.9360049607629467</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>44053.99930555555</v>
+        <v>44001.99930555555</v>
       </c>
       <c r="C164" t="n">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D164" t="n">
-        <v>425.7982179107317</v>
+        <v>216.1053470358905</v>
       </c>
       <c r="E164" t="n">
-        <v>1.319194345242251</v>
+        <v>0.8008202301291317</v>
       </c>
       <c r="F164" t="n">
-        <v>1.191399964374218</v>
+        <v>0.6982164822131336</v>
       </c>
       <c r="G164" t="n">
-        <v>1.444857274843385</v>
+        <v>0.9144576775840036</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>44054.99930555555</v>
+        <v>44000.99930555555</v>
       </c>
       <c r="C165" t="n">
-        <v>412</v>
+        <v>333</v>
       </c>
       <c r="D165" t="n">
-        <v>436.8525727312109</v>
+        <v>222.7804288149193</v>
       </c>
       <c r="E165" t="n">
-        <v>1.296350800665307</v>
+        <v>0.804908975070649</v>
       </c>
       <c r="F165" t="n">
-        <v>1.173445309377225</v>
+        <v>0.6965061355257602</v>
       </c>
       <c r="G165" t="n">
-        <v>1.417872407883678</v>
+        <v>0.9063755243133655</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>44055.99930555555</v>
+        <v>43999.99930555555</v>
       </c>
       <c r="C166" t="n">
-        <v>481</v>
+        <v>329</v>
       </c>
       <c r="D166" t="n">
-        <v>446.7475391984774</v>
+        <v>235.0076234889472</v>
       </c>
       <c r="E166" t="n">
-        <v>1.272872171420256</v>
+        <v>0.8275875469122639</v>
       </c>
       <c r="F166" t="n">
-        <v>1.155915416182118</v>
+        <v>0.7225666547021282</v>
       </c>
       <c r="G166" t="n">
-        <v>1.391852091978891</v>
+        <v>0.9328274320823108</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>44056.99930555555</v>
+        <v>43998.99930555555</v>
       </c>
       <c r="C167" t="n">
-        <v>523</v>
+        <v>210</v>
       </c>
       <c r="D167" t="n">
-        <v>456.0529412747832</v>
+        <v>249.6260870326578</v>
       </c>
       <c r="E167" t="n">
-        <v>1.249271038143182</v>
+        <v>0.8634644755912193</v>
       </c>
       <c r="F167" t="n">
-        <v>1.137086604491465</v>
+        <v>0.7609220497398335</v>
       </c>
       <c r="G167" t="n">
-        <v>1.363626344643679</v>
+        <v>0.9725623430120777</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>44057.99930555555</v>
+        <v>43997.99930555555</v>
       </c>
       <c r="C168" t="n">
-        <v>574</v>
+        <v>303</v>
       </c>
       <c r="D168" t="n">
-        <v>466.3852210934814</v>
+        <v>263.6823574203484</v>
       </c>
       <c r="E168" t="n">
-        <v>1.232509167585141</v>
+        <v>0.8960896836871598</v>
       </c>
       <c r="F168" t="n">
-        <v>1.122064183191448</v>
+        <v>0.7874147900190098</v>
       </c>
       <c r="G168" t="n">
-        <v>1.344106923194359</v>
+        <v>1.003710427142176</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>44058.99930555555</v>
+        <v>43996.99930555555</v>
       </c>
       <c r="C169" t="n">
-        <v>629</v>
+        <v>338</v>
       </c>
       <c r="D169" t="n">
-        <v>481.059659102739</v>
+        <v>274.6993357885203</v>
       </c>
       <c r="E169" t="n">
-        <v>1.228663415680231</v>
+        <v>0.9177466786127665</v>
       </c>
       <c r="F169" t="n">
-        <v>1.114800088365558</v>
+        <v>0.8116327244980681</v>
       </c>
       <c r="G169" t="n">
-        <v>1.337160614963369</v>
+        <v>1.025668119617905</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>44059.99930555555</v>
+        <v>43995.99930555555</v>
       </c>
       <c r="C170" t="n">
-        <v>479</v>
+        <v>346</v>
       </c>
       <c r="D170" t="n">
-        <v>505.0831145468554</v>
+        <v>281.3415229023371</v>
       </c>
       <c r="E170" t="n">
-        <v>1.249959477028509</v>
+        <v>0.921956671173658</v>
       </c>
       <c r="F170" t="n">
-        <v>1.13903272819397</v>
+        <v>0.8203793533760037</v>
       </c>
       <c r="G170" t="n">
-        <v>1.357791060364059</v>
+        <v>1.033310343442542</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>44060.99930555555</v>
+        <v>43994.99930555555</v>
       </c>
       <c r="C171" t="n">
-        <v>320</v>
+        <v>163</v>
       </c>
       <c r="D171" t="n">
-        <v>544.0706124726875</v>
+        <v>283.7070508285013</v>
       </c>
       <c r="E171" t="n">
-        <v>1.302597780335526</v>
+        <v>0.9122095604586283</v>
       </c>
       <c r="F171" t="n">
-        <v>1.197829845790979</v>
+        <v>0.8072204232464457</v>
       </c>
       <c r="G171" t="n">
-        <v>1.414101451779437</v>
+        <v>1.018631918479711</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>44061.99930555555</v>
+        <v>43993.99930555555</v>
       </c>
       <c r="C172" t="n">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="D172" t="n">
-        <v>601.6825358226162</v>
+        <v>282.9867689759678</v>
       </c>
       <c r="E172" t="n">
-        <v>1.388473985937507</v>
+        <v>0.8850482680486199</v>
       </c>
       <c r="F172" t="n">
-        <v>1.279677121194175</v>
+        <v>0.7854161913515292</v>
       </c>
       <c r="G172" t="n">
-        <v>1.501737200422604</v>
+        <v>0.9908214392521848</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>44062.99930555555</v>
+        <v>43992.99930555555</v>
       </c>
       <c r="C173" t="n">
-        <v>642</v>
+        <v>202</v>
       </c>
       <c r="D173" t="n">
-        <v>677.342650498454</v>
+        <v>280.4766886712735</v>
       </c>
       <c r="E173" t="n">
-        <v>1.492615716820597</v>
+        <v>0.8478764058505427</v>
       </c>
       <c r="F173" t="n">
-        <v>1.379460699033074</v>
+        <v>0.7507375775767275</v>
       </c>
       <c r="G173" t="n">
-        <v>1.601483180789527</v>
+        <v>0.9502261841933184</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>44063.99930555555</v>
+        <v>43991.99930555555</v>
       </c>
       <c r="C174" t="n">
-        <v>845</v>
+        <v>283</v>
       </c>
       <c r="D174" t="n">
-        <v>766.1968289587612</v>
+        <v>277.7975102342952</v>
       </c>
       <c r="E174" t="n">
-        <v>1.59822359769173</v>
+        <v>0.8101095161247328</v>
       </c>
       <c r="F174" t="n">
-        <v>1.481574544425126</v>
+        <v>0.7166580423733173</v>
       </c>
       <c r="G174" t="n">
-        <v>1.704432199014293</v>
+        <v>0.9055291762112588</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>44064.99930555555</v>
+        <v>43990.99930555555</v>
       </c>
       <c r="C175" t="n">
-        <v>947</v>
+        <v>280</v>
       </c>
       <c r="D175" t="n">
-        <v>861.0785997075602</v>
+        <v>276.1540103698301</v>
       </c>
       <c r="E175" t="n">
-        <v>1.679603283504604</v>
+        <v>0.7693654752672259</v>
       </c>
       <c r="F175" t="n">
-        <v>1.569192113727869</v>
+        <v>0.6792297832114285</v>
       </c>
       <c r="G175" t="n">
-        <v>1.788468539880436</v>
+        <v>0.8605981010218408</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>44065.99930555555</v>
+        <v>43989.99930555555</v>
       </c>
       <c r="C176" t="n">
-        <v>1071</v>
+        <v>197</v>
       </c>
       <c r="D176" t="n">
-        <v>954.8281365958263</v>
+        <v>276.3792452987703</v>
       </c>
       <c r="E176" t="n">
-        <v>1.723192495181908</v>
+        <v>0.7329990591724869</v>
       </c>
       <c r="F176" t="n">
-        <v>1.615773888467157</v>
+        <v>0.646120152541914</v>
       </c>
       <c r="G176" t="n">
-        <v>1.830587947785777</v>
+        <v>0.8183483510421262</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>44066.99930555555</v>
+        <v>43988.99930555555</v>
       </c>
       <c r="C177" t="n">
-        <v>1210</v>
+        <v>270</v>
       </c>
       <c r="D177" t="n">
-        <v>1041.873202883022</v>
+        <v>278.9266880686133</v>
       </c>
       <c r="E177" t="n">
-        <v>1.725627481877013</v>
+        <v>0.7035094299334563</v>
       </c>
       <c r="F177" t="n">
-        <v>1.621263709848733</v>
+        <v>0.6225561622848131</v>
       </c>
       <c r="G177" t="n">
-        <v>1.829283010584223</v>
+        <v>0.7886915271030457</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>44067.99930555555</v>
+        <v>43987.99930555555</v>
       </c>
       <c r="C178" t="n">
-        <v>953</v>
+        <v>518</v>
       </c>
       <c r="D178" t="n">
-        <v>1118.950880243221</v>
+        <v>283.8238965234243</v>
       </c>
       <c r="E178" t="n">
-        <v>1.696953248250299</v>
+        <v>0.6775790048603572</v>
       </c>
       <c r="F178" t="n">
-        <v>1.597364380864459</v>
+        <v>0.6005203930446628</v>
       </c>
       <c r="G178" t="n">
-        <v>1.79591768693266</v>
+        <v>0.7564685343957397</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>44068.99930555555</v>
+        <v>43986.99930555555</v>
       </c>
       <c r="C179" t="n">
-        <v>878</v>
+        <v>177</v>
       </c>
       <c r="D179" t="n">
-        <v>1184.667581530299</v>
+        <v>291.419993222656</v>
       </c>
       <c r="E179" t="n">
-        <v>1.64454648121344</v>
+        <v>0.6557819999052175</v>
       </c>
       <c r="F179" t="n">
-        <v>1.553720161940987</v>
+        <v>0.5787045221020071</v>
       </c>
       <c r="G179" t="n">
-        <v>1.739476799216713</v>
+        <v>0.730172797023531</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>44069.99930555555</v>
+        <v>43985.99930555555</v>
       </c>
       <c r="C180" t="n">
-        <v>1367</v>
+        <v>321</v>
       </c>
       <c r="D180" t="n">
-        <v>1237.387806107631</v>
+        <v>303.2224203797717</v>
       </c>
       <c r="E180" t="n">
-        <v>1.576990982392097</v>
+        <v>0.6447750801387486</v>
       </c>
       <c r="F180" t="n">
-        <v>1.491558664475908</v>
+        <v>0.573980565072334</v>
       </c>
       <c r="G180" t="n">
-        <v>1.669119776963481</v>
+        <v>0.7189396385717578</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>44070.99930555555</v>
+        <v>43984.99930555555</v>
       </c>
       <c r="C181" t="n">
-        <v>1411</v>
+        <v>318</v>
       </c>
       <c r="D181" t="n">
-        <v>1274.782388978332</v>
+        <v>320.3918993241417</v>
       </c>
       <c r="E181" t="n">
-        <v>1.501850790035522</v>
+        <v>0.6438750468560592</v>
       </c>
       <c r="F181" t="n">
-        <v>1.42021485492513</v>
+        <v>0.5751523637770188</v>
       </c>
       <c r="G181" t="n">
-        <v>1.58351852606794</v>
+        <v>0.7150281303088322</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>44071.99930555555</v>
+        <v>43983.99930555555</v>
       </c>
       <c r="C182" t="n">
-        <v>1462</v>
+        <v>178</v>
       </c>
       <c r="D182" t="n">
-        <v>1296.463438860489</v>
+        <v>343.3816112481258</v>
       </c>
       <c r="E182" t="n">
-        <v>1.421811314270861</v>
+        <v>0.6546704940861795</v>
       </c>
       <c r="F182" t="n">
-        <v>1.344707303983542</v>
+        <v>0.5889122245105948</v>
       </c>
       <c r="G182" t="n">
-        <v>1.498847717723274</v>
+        <v>0.726965742870096</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>44072.99930555555</v>
+        <v>43982.99930555555</v>
       </c>
       <c r="C183" t="n">
-        <v>1444</v>
+        <v>355</v>
       </c>
       <c r="D183" t="n">
-        <v>1305.333139679099</v>
+        <v>371.3986373750225</v>
       </c>
       <c r="E183" t="n">
-        <v>1.344258675547082</v>
+        <v>0.6727563800057275</v>
       </c>
       <c r="F183" t="n">
-        <v>1.268089967160276</v>
+        <v>0.6073516729208893</v>
       </c>
       <c r="G183" t="n">
-        <v>1.413146877618967</v>
+        <v>0.7417329313157227</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>44073.99930555555</v>
+        <v>43981.99930555555</v>
       </c>
       <c r="C184" t="n">
-        <v>1365</v>
+        <v>416</v>
       </c>
       <c r="D184" t="n">
-        <v>1307.590394217471</v>
+        <v>401.8892866366058</v>
       </c>
       <c r="E184" t="n">
-        <v>1.276472816872775</v>
+        <v>0.6942617969232481</v>
       </c>
       <c r="F184" t="n">
-        <v>1.205740918630734</v>
+        <v>0.6273169880437854</v>
       </c>
       <c r="G184" t="n">
-        <v>1.344834890626132</v>
+        <v>0.7627477597723066</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>44074.99930555555</v>
+        <v>43980.99930555555</v>
       </c>
       <c r="C185" t="n">
-        <v>996</v>
+        <v>516</v>
       </c>
       <c r="D185" t="n">
-        <v>1311.102080178979</v>
+        <v>431.6781897885292</v>
       </c>
       <c r="E185" t="n">
-        <v>1.223117407030236</v>
+        <v>0.7123702027209377</v>
       </c>
       <c r="F185" t="n">
-        <v>1.159529346376033</v>
+        <v>0.6457348149134082</v>
       </c>
       <c r="G185" t="n">
-        <v>1.288737862717023</v>
+        <v>0.7802645814667194</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>44075.99930555555</v>
+        <v>43979.99930555555</v>
       </c>
       <c r="C186" t="n">
-        <v>978</v>
+        <v>593</v>
       </c>
       <c r="D186" t="n">
-        <v>1322.387657864693</v>
+        <v>458.2714693921788</v>
       </c>
       <c r="E186" t="n">
-        <v>1.187786294076174</v>
+        <v>0.7214682501060062</v>
       </c>
       <c r="F186" t="n">
-        <v>1.123628960758944</v>
+        <v>0.6556910710581996</v>
       </c>
       <c r="G186" t="n">
-        <v>1.251935209806846</v>
+        <v>0.7881070999138331</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>44076.99930555555</v>
+        <v>43978.99930555555</v>
       </c>
       <c r="C187" t="n">
-        <v>1326</v>
+        <v>584</v>
       </c>
       <c r="D187" t="n">
-        <v>1343.029668384281</v>
+        <v>481.0187309747744</v>
       </c>
       <c r="E187" t="n">
-        <v>1.169383992353236</v>
+        <v>0.7227198435655202</v>
       </c>
       <c r="F187" t="n">
-        <v>1.107044611944618</v>
+        <v>0.6573929605002593</v>
       </c>
       <c r="G187" t="n">
-        <v>1.232075328534407</v>
+        <v>0.7876114492206701</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>44077.99930555555</v>
+        <v>43977.99930555555</v>
       </c>
       <c r="C188" t="n">
-        <v>1397</v>
+        <v>397</v>
       </c>
       <c r="D188" t="n">
-        <v>1369.235260863146</v>
+        <v>501.4318761494759</v>
       </c>
       <c r="E188" t="n">
-        <v>1.159981221036663</v>
+        <v>0.718306417020111</v>
       </c>
       <c r="F188" t="n">
-        <v>1.101687514970929</v>
+        <v>0.6546546623581662</v>
       </c>
       <c r="G188" t="n">
-        <v>1.223080038911937</v>
+        <v>0.7805010260205659</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>44078.99930555555</v>
+        <v>43976.99930555555</v>
       </c>
       <c r="C189" t="n">
-        <v>1733</v>
+        <v>300</v>
       </c>
       <c r="D189" t="n">
-        <v>1394.871592945744</v>
+        <v>522.1566259329879</v>
       </c>
       <c r="E189" t="n">
-        <v>1.153526144291282</v>
+        <v>0.7137504799034415</v>
       </c>
       <c r="F189" t="n">
-        <v>1.093832381382905</v>
+        <v>0.6557169853016863</v>
       </c>
       <c r="G189" t="n">
-        <v>1.21487736443729</v>
+        <v>0.7762554283943635</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>44079.99930555555</v>
+        <v>43975.99930555555</v>
       </c>
       <c r="C190" t="n">
-        <v>1694</v>
+        <v>531</v>
       </c>
       <c r="D190" t="n">
-        <v>1414.6715272416</v>
+        <v>544.9142332540232</v>
       </c>
       <c r="E190" t="n">
-        <v>1.143339919185006</v>
+        <v>0.7099722704444833</v>
       </c>
       <c r="F190" t="n">
-        <v>1.083402927085429</v>
+        <v>0.6510529962948443</v>
       </c>
       <c r="G190" t="n">
-        <v>1.202956221979742</v>
+        <v>0.7692766705142805</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>195</v>
+        <v>89</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>44080.99930555555</v>
+        <v>43974.99930555555</v>
       </c>
       <c r="C191" t="n">
-        <v>1297</v>
+        <v>669</v>
       </c>
       <c r="D191" t="n">
-        <v>1427.161679074811</v>
+        <v>569.4874767184872</v>
       </c>
       <c r="E191" t="n">
-        <v>1.128798048471406</v>
+        <v>0.7060270688756078</v>
       </c>
       <c r="F191" t="n">
-        <v>1.07151521915072</v>
+        <v>0.6458032882810799</v>
       </c>
       <c r="G191" t="n">
-        <v>1.187121681432874</v>
+        <v>0.762977985368928</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>44081.99930555555</v>
+        <v>43973.99930555555</v>
       </c>
       <c r="C192" t="n">
-        <v>1108</v>
+        <v>652</v>
       </c>
       <c r="D192" t="n">
-        <v>1434.219186033854</v>
+        <v>594.928256922492</v>
       </c>
       <c r="E192" t="n">
-        <v>1.112955633713417</v>
+        <v>0.7026416881246491</v>
       </c>
       <c r="F192" t="n">
-        <v>1.057064605778363</v>
+        <v>0.6471829785986317</v>
       </c>
       <c r="G192" t="n">
-        <v>1.17059118868686</v>
+        <v>0.7585989387902647</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>44082.99930555555</v>
+        <v>43972.99930555555</v>
       </c>
       <c r="C193" t="n">
-        <v>1370</v>
+        <v>642</v>
       </c>
       <c r="D193" t="n">
-        <v>1437.845188432606</v>
+        <v>620.9043638340218</v>
       </c>
       <c r="E193" t="n">
-        <v>1.096903618923405</v>
+        <v>0.6967088717503427</v>
       </c>
       <c r="F193" t="n">
-        <v>1.039294149153264</v>
+        <v>0.6419519623803681</v>
       </c>
       <c r="G193" t="n">
-        <v>1.152266508305647</v>
+        <v>0.7511876954936699</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>198</v>
+        <v>86</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>44083.99930555555</v>
+        <v>43971.99930555555</v>
       </c>
       <c r="C194" t="n">
-        <v>1434</v>
+        <v>665</v>
       </c>
       <c r="D194" t="n">
-        <v>1438.239922844773</v>
+        <v>648.0510564026097</v>
       </c>
       <c r="E194" t="n">
-        <v>1.080682380482971</v>
+        <v>0.6911404892292169</v>
       </c>
       <c r="F194" t="n">
-        <v>1.027213329197193</v>
+        <v>0.6371141299089226</v>
       </c>
       <c r="G194" t="n">
-        <v>1.138577820812497</v>
+        <v>0.7435546266975981</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>44084.99930555555</v>
+        <v>43970.99930555555</v>
       </c>
       <c r="C195" t="n">
-        <v>1597</v>
+        <v>813</v>
       </c>
       <c r="D195" t="n">
-        <v>1434.720017258368</v>
+        <v>677.7519453934297</v>
       </c>
       <c r="E195" t="n">
-        <v>1.064525787851341</v>
+        <v>0.6868734893752775</v>
       </c>
       <c r="F195" t="n">
-        <v>1.010700352446688</v>
+        <v>0.6340916386023261</v>
       </c>
       <c r="G195" t="n">
-        <v>1.121007338987053</v>
+        <v>0.7373677400799872</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>44085.99930555555</v>
+        <v>43969.99930555555</v>
       </c>
       <c r="C196" t="n">
-        <v>1616</v>
+        <v>451</v>
       </c>
       <c r="D196" t="n">
-        <v>1427.324229354185</v>
+        <v>711.7089407370659</v>
       </c>
       <c r="E196" t="n">
-        <v>1.047810564368739</v>
+        <v>0.6855137674068642</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9939394903431773</v>
+        <v>0.6335754764783852</v>
       </c>
       <c r="G196" t="n">
-        <v>1.103437643350352</v>
+        <v>0.7353563314976668</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>44086.99930555555</v>
+        <v>43968.99930555555</v>
       </c>
       <c r="C197" t="n">
-        <v>1501</v>
+        <v>675</v>
       </c>
       <c r="D197" t="n">
-        <v>1418.501590061765</v>
+        <v>751.3426853022132</v>
       </c>
       <c r="E197" t="n">
-        <v>1.03298594022728</v>
+        <v>0.6877136055086025</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9819193804222645</v>
+        <v>0.6400321882698252</v>
       </c>
       <c r="G197" t="n">
-        <v>1.087447379209521</v>
+        <v>0.7375360610001027</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>44087.99930555555</v>
+        <v>43967.99930555555</v>
       </c>
       <c r="C198" t="n">
-        <v>1458</v>
+        <v>875</v>
       </c>
       <c r="D198" t="n">
-        <v>1413.176741535353</v>
+        <v>795.8405175773956</v>
       </c>
       <c r="E198" t="n">
-        <v>1.022512249252331</v>
+        <v>0.6932015356388334</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9678678604027046</v>
+        <v>0.6454689470376029</v>
       </c>
       <c r="G198" t="n">
-        <v>1.074559086883915</v>
+        <v>0.7410452437994224</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>44088.99930555555</v>
+        <v>43966.99930555555</v>
       </c>
       <c r="C199" t="n">
-        <v>1008</v>
+        <v>789</v>
       </c>
       <c r="D199" t="n">
-        <v>1416.928522773327</v>
+        <v>842.8115419950773</v>
       </c>
       <c r="E199" t="n">
-        <v>1.020769897300392</v>
+        <v>0.6984325288032208</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9683453687847234</v>
+        <v>0.6514759723890775</v>
       </c>
       <c r="G199" t="n">
-        <v>1.074834269951837</v>
+        <v>0.7451988771321019</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>44089.99930555555</v>
+        <v>43965.99930555555</v>
       </c>
       <c r="C200" t="n">
-        <v>1229</v>
+        <v>992</v>
       </c>
       <c r="D200" t="n">
-        <v>1433.34356552695</v>
+        <v>889.7050784384519</v>
       </c>
       <c r="E200" t="n">
-        <v>1.029323329113335</v>
+        <v>0.7012148950487214</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9773983099045431</v>
+        <v>0.6531801747159026</v>
       </c>
       <c r="G200" t="n">
-        <v>1.083171979620467</v>
+        <v>0.7454658348736491</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>44090.99930555555</v>
+        <v>43964.99930555555</v>
       </c>
       <c r="C201" t="n">
-        <v>1452</v>
+        <v>888</v>
       </c>
       <c r="D201" t="n">
-        <v>1460.941668247608</v>
+        <v>934.43757533936</v>
       </c>
       <c r="E201" t="n">
-        <v>1.045686580224266</v>
+        <v>0.6995054586553272</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9922500559345929</v>
+        <v>0.6557881000459213</v>
       </c>
       <c r="G201" t="n">
-        <v>1.098328706523909</v>
+        <v>0.7444038779687333</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>44091.99930555555</v>
+        <v>43963.99930555555</v>
       </c>
       <c r="C202" t="n">
-        <v>1585</v>
+        <v>1402</v>
       </c>
       <c r="D202" t="n">
-        <v>1494.190438827317</v>
+        <v>976.557587898219</v>
       </c>
       <c r="E202" t="n">
-        <v>1.064762924483975</v>
+        <v>0.6951702776350566</v>
       </c>
       <c r="F202" t="n">
-        <v>1.012280191046107</v>
+        <v>0.6520524443764216</v>
       </c>
       <c r="G202" t="n">
-        <v>1.118307441405917</v>
+        <v>0.738224176325476</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>44092.99930555555</v>
+        <v>43962.99930555555</v>
       </c>
       <c r="C203" t="n">
-        <v>1907</v>
+        <v>744</v>
       </c>
       <c r="D203" t="n">
-        <v>1526.563388972341</v>
+        <v>1017.387816747667</v>
       </c>
       <c r="E203" t="n">
-        <v>1.080948628330336</v>
+        <v>0.6862140172966122</v>
       </c>
       <c r="F203" t="n">
-        <v>1.02789431800491</v>
+        <v>0.6433592015689439</v>
       </c>
       <c r="G203" t="n">
-        <v>1.135229471038339</v>
+        <v>0.7279338211151045</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>44093.99930555555</v>
+        <v>43961.99930555555</v>
       </c>
       <c r="C204" t="n">
-        <v>1638</v>
+        <v>802</v>
       </c>
       <c r="D204" t="n">
-        <v>1553.687434295778</v>
+        <v>1060.631590674411</v>
       </c>
       <c r="E204" t="n">
-        <v>1.091142161832424</v>
+        <v>0.6784982629256264</v>
       </c>
       <c r="F204" t="n">
-        <v>1.035292715807804</v>
+        <v>0.6384294640466479</v>
       </c>
       <c r="G204" t="n">
-        <v>1.14335777685673</v>
+        <v>0.7207308866881021</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>44094.99930555555</v>
+        <v>43960.99930555555</v>
       </c>
       <c r="C205" t="n">
-        <v>1587</v>
+        <v>1083</v>
       </c>
       <c r="D205" t="n">
-        <v>1575.602302843105</v>
+        <v>1108.724792946132</v>
       </c>
       <c r="E205" t="n">
-        <v>1.095086420858606</v>
+        <v>0.6717106786610817</v>
       </c>
       <c r="F205" t="n">
-        <v>1.041657990502468</v>
+        <v>0.631771452030638</v>
       </c>
       <c r="G205" t="n">
-        <v>1.149385986747628</v>
+        <v>0.7093807935465997</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>44095.99930555555</v>
+        <v>43959.99930555555</v>
       </c>
       <c r="C206" t="n">
-        <v>1350</v>
+        <v>1327</v>
       </c>
       <c r="D206" t="n">
-        <v>1595.215580927086</v>
+        <v>1161.921786651055</v>
       </c>
       <c r="E206" t="n">
-        <v>1.096342243920365</v>
+        <v>0.6659948228813838</v>
       </c>
       <c r="F206" t="n">
-        <v>1.045260198981733</v>
+        <v>0.6274590106485424</v>
       </c>
       <c r="G206" t="n">
-        <v>1.151915464553061</v>
+        <v>0.7039476541240968</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>44096.99930555555</v>
+        <v>43958.99930555555</v>
       </c>
       <c r="C207" t="n">
-        <v>1392</v>
+        <v>1401</v>
       </c>
       <c r="D207" t="n">
-        <v>1615.924627628339</v>
+        <v>1219.967635929555</v>
       </c>
       <c r="E207" t="n">
-        <v>1.097389050442872</v>
+        <v>0.6618242174237629</v>
       </c>
       <c r="F207" t="n">
-        <v>1.045013167802066</v>
+        <v>0.6246053181725192</v>
       </c>
       <c r="G207" t="n">
-        <v>1.15257202592938</v>
+        <v>0.6977328280131939</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>44097.99930555555</v>
+        <v>43957.99930555555</v>
       </c>
       <c r="C208" t="n">
-        <v>1640</v>
+        <v>1444</v>
       </c>
       <c r="D208" t="n">
-        <v>1639.12451623825</v>
+        <v>1284.02749071563</v>
       </c>
       <c r="E208" t="n">
-        <v>1.099184889169812</v>
+        <v>0.6597107706502365</v>
       </c>
       <c r="F208" t="n">
-        <v>1.044367875866508</v>
+        <v>0.6243308679387087</v>
       </c>
       <c r="G208" t="n">
-        <v>1.151664507625116</v>
+        <v>0.6953809194197651</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>44098.99930555555</v>
+        <v>43956.99930555555</v>
       </c>
       <c r="C209" t="n">
-        <v>1786</v>
+        <v>1075</v>
       </c>
       <c r="D209" t="n">
-        <v>1664.168127493205</v>
+        <v>1356.965275857392</v>
       </c>
       <c r="E209" t="n">
-        <v>1.10182693687144</v>
+        <v>0.6606804530239571</v>
       </c>
       <c r="F209" t="n">
-        <v>1.04609336843081</v>
+        <v>0.6258169667017658</v>
       </c>
       <c r="G209" t="n">
-        <v>1.151529353565651</v>
+        <v>0.6958543469506558</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>214</v>
+        <v>70</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>44099.99930555555</v>
+        <v>43955.99930555555</v>
       </c>
       <c r="C210" t="n">
-        <v>1912</v>
+        <v>1221</v>
       </c>
       <c r="D210" t="n">
-        <v>1690.575492613597</v>
+        <v>1441.812032248816</v>
       </c>
       <c r="E210" t="n">
-        <v>1.105007472893259</v>
+        <v>0.6666218069622561</v>
       </c>
       <c r="F210" t="n">
-        <v>1.053294175710782</v>
+        <v>0.6324399341094242</v>
       </c>
       <c r="G210" t="n">
-        <v>1.1576957389951</v>
+        <v>0.70120047872572</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>44100.99930555555</v>
+        <v>43954.99930555555</v>
       </c>
       <c r="C211" t="n">
-        <v>1869</v>
+        <v>1389</v>
       </c>
       <c r="D211" t="n">
-        <v>1720.234381204748</v>
+        <v>1538.634560353608</v>
       </c>
       <c r="E211" t="n">
-        <v>1.108672372639422</v>
+        <v>0.6771226206566244</v>
       </c>
       <c r="F211" t="n">
-        <v>1.057007264353415</v>
+        <v>0.6442858321418024</v>
       </c>
       <c r="G211" t="n">
-        <v>1.163167694574195</v>
+        <v>0.7103982393945896</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>216</v>
+        <v>68</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>44101.99930555555</v>
+        <v>43953.99930555555</v>
       </c>
       <c r="C212" t="n">
-        <v>1766</v>
+        <v>1900</v>
       </c>
       <c r="D212" t="n">
-        <v>1758.382567982551</v>
+        <v>1644.223615413202</v>
       </c>
       <c r="E212" t="n">
-        <v>1.117605650303037</v>
+        <v>0.6894799841423139</v>
       </c>
       <c r="F212" t="n">
-        <v>1.067138979593113</v>
+        <v>0.6573971898954588</v>
       </c>
       <c r="G212" t="n">
-        <v>1.170313716426016</v>
+        <v>0.7233745087275933</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>44102.99930555555</v>
+        <v>43952.99930555555</v>
       </c>
       <c r="C213" t="n">
-        <v>1494</v>
+        <v>1965</v>
       </c>
       <c r="D213" t="n">
-        <v>1812.37585817858</v>
+        <v>1753.990328365537</v>
       </c>
       <c r="E213" t="n">
-        <v>1.134828183129041</v>
+        <v>0.703411139114111</v>
       </c>
       <c r="F213" t="n">
-        <v>1.085189997619506</v>
+        <v>0.670848249888036</v>
       </c>
       <c r="G213" t="n">
-        <v>1.186737828922896</v>
+        <v>0.736374513331997</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>44103.99930555555</v>
+        <v>43951.99930555555</v>
       </c>
       <c r="C214" t="n">
-        <v>1648</v>
+        <v>1872</v>
       </c>
       <c r="D214" t="n">
-        <v>1888.968452254904</v>
+        <v>1865.358959516501</v>
       </c>
       <c r="E214" t="n">
-        <v>1.163746282438643</v>
+        <v>0.7166961882528968</v>
       </c>
       <c r="F214" t="n">
-        <v>1.111261894348164</v>
+        <v>0.6826650328720784</v>
       </c>
       <c r="G214" t="n">
-        <v>1.215287346108646</v>
+        <v>0.7480523567579689</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>44104.99930555555</v>
+        <v>43950.99930555555</v>
       </c>
       <c r="C215" t="n">
-        <v>1851</v>
+        <v>2086</v>
       </c>
       <c r="D215" t="n">
-        <v>1991.517139537016</v>
+        <v>1978.601848258947</v>
       </c>
       <c r="E215" t="n">
-        <v>1.203426842371343</v>
+        <v>0.7305829703757459</v>
       </c>
       <c r="F215" t="n">
-        <v>1.148818208028579</v>
+        <v>0.6991416909821707</v>
       </c>
       <c r="G215" t="n">
-        <v>1.254577450960005</v>
+        <v>0.7645203417356519</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>44105.99930555555</v>
+        <v>43949.99930555555</v>
       </c>
       <c r="C216" t="n">
-        <v>2548</v>
+        <v>2091</v>
       </c>
       <c r="D216" t="n">
-        <v>2120.369251639212</v>
+        <v>2095.56430211</v>
       </c>
       <c r="E216" t="n">
-        <v>1.25058763782721</v>
+        <v>0.7453189074865636</v>
       </c>
       <c r="F216" t="n">
-        <v>1.199776601294214</v>
+        <v>0.7135302425446978</v>
       </c>
       <c r="G216" t="n">
-        <v>1.305603250915046</v>
+        <v>0.7779507698262709</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>44106.99930555555</v>
+        <v>43948.99930555555</v>
       </c>
       <c r="C217" t="n">
-        <v>2499</v>
+        <v>1739</v>
       </c>
       <c r="D217" t="n">
-        <v>2275.670295985499</v>
+        <v>2218.322999357893</v>
       </c>
       <c r="E217" t="n">
-        <v>1.304718730915378</v>
+        <v>0.7615828266425139</v>
       </c>
       <c r="F217" t="n">
-        <v>1.252877858892535</v>
+        <v>0.7294000047608228</v>
       </c>
       <c r="G217" t="n">
-        <v>1.358420733988148</v>
+        <v>0.7936203377452188</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>222</v>
+        <v>62</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>44107.99930555555</v>
+        <v>43947.99930555555</v>
       </c>
       <c r="C218" t="n">
-        <v>2844</v>
+        <v>2324</v>
       </c>
       <c r="D218" t="n">
-        <v>2461.586763347836</v>
+        <v>2346.770553703111</v>
       </c>
       <c r="E218" t="n">
-        <v>1.362934554395522</v>
+        <v>0.7802733262230189</v>
       </c>
       <c r="F218" t="n">
-        <v>1.309614438665328</v>
+        <v>0.7485428007139946</v>
       </c>
       <c r="G218" t="n">
-        <v>1.417100260730105</v>
+        <v>0.8113498080894535</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>223</v>
+        <v>61</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>44108.99930555555</v>
+        <v>43946.99930555555</v>
       </c>
       <c r="C219" t="n">
-        <v>2578</v>
+        <v>2357</v>
       </c>
       <c r="D219" t="n">
-        <v>2686.252628761764</v>
+        <v>2476.245561071606</v>
       </c>
       <c r="E219" t="n">
-        <v>1.42529037747938</v>
+        <v>0.7992699180116262</v>
       </c>
       <c r="F219" t="n">
-        <v>1.372279298469934</v>
+        <v>0.7669776663900969</v>
       </c>
       <c r="G219" t="n">
-        <v>1.478775965567246</v>
+        <v>0.8294755270652867</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>44109.99930555555</v>
+        <v>43945.99930555555</v>
       </c>
       <c r="C220" t="n">
-        <v>2257</v>
+        <v>3021</v>
       </c>
       <c r="D220" t="n">
-        <v>2959.482552676897</v>
+        <v>2599.955965103094</v>
       </c>
       <c r="E220" t="n">
-        <v>1.494277336876094</v>
+        <v>0.8162158647597515</v>
       </c>
       <c r="F220" t="n">
-        <v>1.44240315965633</v>
+        <v>0.7847132598397165</v>
       </c>
       <c r="G220" t="n">
-        <v>1.54985807904398</v>
+        <v>0.8473211288085497</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>225</v>
+        <v>59</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>44110.99930555555</v>
+        <v>43944.99930555555</v>
       </c>
       <c r="C221" t="n">
-        <v>2677</v>
+        <v>2646</v>
       </c>
       <c r="D221" t="n">
-        <v>3286.670952483901</v>
+        <v>2711.630162164234</v>
       </c>
       <c r="E221" t="n">
-        <v>1.567084493908906</v>
+        <v>0.8293429119731779</v>
       </c>
       <c r="F221" t="n">
-        <v>1.510545803609385</v>
+        <v>0.7982322779703173</v>
       </c>
       <c r="G221" t="n">
-        <v>1.619050595227247</v>
+        <v>0.8602135271755648</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>226</v>
+        <v>58</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>44111.99930555555</v>
+        <v>43943.99930555555</v>
       </c>
       <c r="C222" t="n">
-        <v>3678</v>
+        <v>3370</v>
       </c>
       <c r="D222" t="n">
-        <v>3663.773599515645</v>
+        <v>2809.3604650328</v>
       </c>
       <c r="E222" t="n">
-        <v>1.634500170883815</v>
+        <v>0.8374548811095497</v>
       </c>
       <c r="F222" t="n">
-        <v>1.582366694623814</v>
+        <v>0.8065450306118813</v>
       </c>
       <c r="G222" t="n">
-        <v>1.687280510548055</v>
+        <v>0.868250097285043</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>44112.99930555555</v>
+        <v>43942.99930555555</v>
       </c>
       <c r="C223" t="n">
-        <v>4458</v>
+        <v>2729</v>
       </c>
       <c r="D223" t="n">
-        <v>4079.314040182893</v>
+        <v>2895.23622076517</v>
       </c>
       <c r="E223" t="n">
-        <v>1.688777291212364</v>
+        <v>0.8421951091035483</v>
       </c>
       <c r="F223" t="n">
-        <v>1.638776506485354</v>
+        <v>0.8115213856371691</v>
       </c>
       <c r="G223" t="n">
-        <v>1.740385096032105</v>
+        <v>0.8734774888788686</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>44113.99930555555</v>
+        <v>43941.99930555555</v>
       </c>
       <c r="C224" t="n">
-        <v>5372</v>
+        <v>2256</v>
       </c>
       <c r="D224" t="n">
-        <v>4522.486727674026</v>
+        <v>2975.633145729309</v>
       </c>
       <c r="E224" t="n">
-        <v>1.725647307740777</v>
+        <v>0.8450600347718717</v>
       </c>
       <c r="F224" t="n">
-        <v>1.675989875596241</v>
+        <v>0.8159106565777072</v>
       </c>
       <c r="G224" t="n">
-        <v>1.775458252718524</v>
+        <v>0.8763863342270856</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>44114.99930555555</v>
+        <v>43940.99930555555</v>
       </c>
       <c r="C225" t="n">
-        <v>5724</v>
+        <v>3047</v>
       </c>
       <c r="D225" t="n">
-        <v>4991.127890986943</v>
+        <v>3055.896338176789</v>
       </c>
       <c r="E225" t="n">
-        <v>1.744951690264994</v>
+        <v>0.8473024018088033</v>
       </c>
       <c r="F225" t="n">
-        <v>1.697407117937997</v>
+        <v>0.8178261903317922</v>
       </c>
       <c r="G225" t="n">
-        <v>1.792573853694253</v>
+        <v>0.8781954840437461</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>230</v>
+        <v>54</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>44115.99930555555</v>
+        <v>43939.99930555555</v>
       </c>
       <c r="C226" t="n">
-        <v>5456</v>
+        <v>3491</v>
       </c>
       <c r="D226" t="n">
-        <v>5495.899542144609</v>
+        <v>3136.685603302299</v>
       </c>
       <c r="E226" t="n">
-        <v>1.754489316059602</v>
+        <v>0.849875679911362</v>
       </c>
       <c r="F226" t="n">
-        <v>1.70822652158457</v>
+        <v>0.8190788466943448</v>
       </c>
       <c r="G226" t="n">
-        <v>1.800395084858026</v>
+        <v>0.8797493527016491</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>231</v>
+        <v>53</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>44116.99930555555</v>
+        <v>43938.99930555555</v>
       </c>
       <c r="C227" t="n">
-        <v>4619</v>
+        <v>3493</v>
       </c>
       <c r="D227" t="n">
-        <v>6055.978351529164</v>
+        <v>3217.517086970322</v>
       </c>
       <c r="E227" t="n">
-        <v>1.76118899371319</v>
+        <v>0.8522878281067023</v>
       </c>
       <c r="F227" t="n">
-        <v>1.715649407327011</v>
+        <v>0.8235609983200847</v>
       </c>
       <c r="G227" t="n">
-        <v>1.803572561085671</v>
+        <v>0.8814513142969488</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>44117.99930555555</v>
+        <v>43937.99930555555</v>
       </c>
       <c r="C228" t="n">
-        <v>5901</v>
+        <v>3786</v>
       </c>
       <c r="D228" t="n">
-        <v>6687.415802395305</v>
+        <v>3300.393997905949</v>
       </c>
       <c r="E228" t="n">
-        <v>1.769340113223102</v>
+        <v>0.8549172026916234</v>
       </c>
       <c r="F228" t="n">
-        <v>1.727704184634158</v>
+        <v>0.8271013439847157</v>
       </c>
       <c r="G228" t="n">
-        <v>1.81205196943384</v>
+        <v>0.8844965746759816</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>44118.99930555555</v>
+        <v>43936.99930555555</v>
       </c>
       <c r="C229" t="n">
-        <v>7332</v>
+        <v>2667</v>
       </c>
       <c r="D229" t="n">
-        <v>7391.897340930749</v>
+        <v>3389.894025553066</v>
       </c>
       <c r="E229" t="n">
-        <v>1.777056915248917</v>
+        <v>0.859849794181879</v>
       </c>
       <c r="F229" t="n">
-        <v>1.738156688201598</v>
+        <v>0.8321915718125528</v>
       </c>
       <c r="G229" t="n">
-        <v>1.819311659537836</v>
+        <v>0.8891194144471288</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>44119.99930555555</v>
+        <v>43935.99930555555</v>
       </c>
       <c r="C230" t="n">
-        <v>8804</v>
+        <v>2972</v>
       </c>
       <c r="D230" t="n">
-        <v>8159.871309297454</v>
+        <v>3490.502033894685</v>
       </c>
       <c r="E230" t="n">
-        <v>1.780853581862816</v>
+        <v>0.8680629446217044</v>
       </c>
       <c r="F230" t="n">
-        <v>1.742613815683571</v>
+        <v>0.8394488884620034</v>
       </c>
       <c r="G230" t="n">
-        <v>1.820291360447285</v>
+        <v>0.8965588205805836</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>235</v>
+        <v>49</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>44120.99930555555</v>
+        <v>43934.99930555555</v>
       </c>
       <c r="C231" t="n">
-        <v>10010</v>
+        <v>3153</v>
       </c>
       <c r="D231" t="n">
-        <v>8981.57203629817</v>
+        <v>3599.086648649403</v>
       </c>
       <c r="E231" t="n">
-        <v>1.778098952884561</v>
+        <v>0.8780138169557375</v>
       </c>
       <c r="F231" t="n">
-        <v>1.740885905761246</v>
+        <v>0.8496567479570987</v>
       </c>
       <c r="G231" t="n">
-        <v>1.814891571910363</v>
+        <v>0.9059917840835549</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>236</v>
+        <v>48</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>44121.99930555555</v>
+        <v>43933.99930555555</v>
       </c>
       <c r="C232" t="n">
-        <v>10925</v>
+        <v>4092</v>
       </c>
       <c r="D232" t="n">
-        <v>9858.641902570296</v>
+        <v>3704.605836030739</v>
       </c>
       <c r="E232" t="n">
-        <v>1.770578607350251</v>
+        <v>0.887496003496425</v>
       </c>
       <c r="F232" t="n">
-        <v>1.735609561827935</v>
+        <v>0.8600768745589914</v>
       </c>
       <c r="G232" t="n">
-        <v>1.805126366909636</v>
+        <v>0.9166124475988296</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>237</v>
+        <v>47</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>44122.99930555555</v>
+        <v>43932.99930555555</v>
       </c>
       <c r="C233" t="n">
-        <v>11705</v>
+        <v>4694</v>
       </c>
       <c r="D233" t="n">
-        <v>10809.32211871302</v>
+        <v>3792.997426926588</v>
       </c>
       <c r="E233" t="n">
-        <v>1.761614207437971</v>
+        <v>0.8920846849943604</v>
       </c>
       <c r="F233" t="n">
-        <v>1.728450500478337</v>
+        <v>0.8645704075707431</v>
       </c>
       <c r="G233" t="n">
-        <v>1.794748917489438</v>
+        <v>0.9211452426843983</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>238</v>
+        <v>46</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>44123.99930555555</v>
+        <v>43931.99930555555</v>
       </c>
       <c r="C234" t="n">
-        <v>9338</v>
+        <v>3951</v>
       </c>
       <c r="D234" t="n">
-        <v>11863.36922299581</v>
+        <v>3856.530623666478</v>
       </c>
       <c r="E234" t="n">
-        <v>1.75561147578796</v>
+        <v>0.8902819056595349</v>
       </c>
       <c r="F234" t="n">
-        <v>1.723363853953548</v>
+        <v>0.8624996060365345</v>
       </c>
       <c r="G234" t="n">
-        <v>1.786663653166162</v>
+        <v>0.9167895281453712</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>44124.99930555555</v>
+        <v>43930.99930555555</v>
       </c>
       <c r="C235" t="n">
-        <v>10874</v>
+        <v>4204</v>
       </c>
       <c r="D235" t="n">
-        <v>13046.30799858766</v>
+        <v>3899.283360084915</v>
       </c>
       <c r="E235" t="n">
-        <v>1.754702411568065</v>
+        <v>0.881840754951304</v>
       </c>
       <c r="F235" t="n">
-        <v>1.723912978034632</v>
+        <v>0.8542172019963851</v>
       </c>
       <c r="G235" t="n">
-        <v>1.783567743956804</v>
+        <v>0.9090068143423607</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>44125.99930555555</v>
+        <v>43929.99930555555</v>
       </c>
       <c r="C236" t="n">
-        <v>15199</v>
+        <v>3836</v>
       </c>
       <c r="D236" t="n">
-        <v>14354.72761196243</v>
+        <v>3933.609846477515</v>
       </c>
       <c r="E236" t="n">
-        <v>1.755274624937441</v>
+        <v>0.8711617981548467</v>
       </c>
       <c r="F236" t="n">
-        <v>1.726669764020811</v>
+        <v>0.8441901260126405</v>
       </c>
       <c r="G236" t="n">
-        <v>1.784109271535913</v>
+        <v>0.8982614213207025</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>241</v>
+        <v>43</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>44126.99930555555</v>
+        <v>43928.99930555555</v>
       </c>
       <c r="C237" t="n">
-        <v>16079</v>
+        <v>3039</v>
       </c>
       <c r="D237" t="n">
-        <v>15756.84144387049</v>
+        <v>3975.663357848922</v>
       </c>
       <c r="E237" t="n">
-        <v>1.751583572011235</v>
+        <v>0.8613107694806857</v>
       </c>
       <c r="F237" t="n">
-        <v>1.725325406329904</v>
+        <v>0.8342564198004886</v>
       </c>
       <c r="G237" t="n">
-        <v>1.779030649895243</v>
+        <v>0.8873694544529123</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>44127.99930555555</v>
+        <v>43927.99930555555</v>
       </c>
       <c r="C238" t="n">
-        <v>19143</v>
+        <v>3599</v>
       </c>
       <c r="D238" t="n">
-        <v>17214.79999923421</v>
+        <v>4037.871824693919</v>
       </c>
       <c r="E238" t="n">
-        <v>1.740380513877655</v>
+        <v>0.8557403621613642</v>
       </c>
       <c r="F238" t="n">
-        <v>1.714386682650186</v>
+        <v>0.8297765122693702</v>
       </c>
       <c r="G238" t="n">
-        <v>1.766254322128101</v>
+        <v>0.8824084541431617</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>44128.99930555555</v>
+        <v>43926.99930555555</v>
       </c>
       <c r="C239" t="n">
-        <v>19644</v>
+        <v>4316</v>
       </c>
       <c r="D239" t="n">
-        <v>18698.56109386937</v>
+        <v>4122.389473074751</v>
       </c>
       <c r="E239" t="n">
-        <v>1.72080579264309</v>
+        <v>0.8553871511573981</v>
       </c>
       <c r="F239" t="n">
-        <v>1.696751471064169</v>
+        <v>0.8302818145622797</v>
       </c>
       <c r="G239" t="n">
-        <v>1.74552968239704</v>
+        <v>0.8812041852047834</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>44129.99930555555</v>
+        <v>43925.99930555555</v>
       </c>
       <c r="C240" t="n">
-        <v>21273</v>
+        <v>4805</v>
       </c>
       <c r="D240" t="n">
-        <v>20196.54845605319</v>
+        <v>4223.915191362948</v>
       </c>
       <c r="E240" t="n">
-        <v>1.694584819622335</v>
+        <v>0.8599173238385969</v>
       </c>
       <c r="F240" t="n">
-        <v>1.671826566155816</v>
+        <v>0.8348085233951965</v>
       </c>
       <c r="G240" t="n">
-        <v>1.717268463723563</v>
+        <v>0.8866229744125186</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>245</v>
+        <v>39</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>44130.99930555555</v>
+        <v>43924.99930555555</v>
       </c>
       <c r="C241" t="n">
-        <v>17012</v>
+        <v>4585</v>
       </c>
       <c r="D241" t="n">
-        <v>21707.02832744145</v>
+        <v>4336.899631729642</v>
       </c>
       <c r="E241" t="n">
-        <v>1.66452481267759</v>
+        <v>0.8678701028662226</v>
       </c>
       <c r="F241" t="n">
-        <v>1.643395402012015</v>
+        <v>0.8416236941994932</v>
       </c>
       <c r="G241" t="n">
-        <v>1.687790961882843</v>
+        <v>0.8933063098717344</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>44131.99930555555</v>
+        <v>43923.99930555555</v>
       </c>
       <c r="C242" t="n">
-        <v>21994</v>
+        <v>4668</v>
       </c>
       <c r="D242" t="n">
-        <v>23220.07167518945</v>
+        <v>4460.816121963365</v>
       </c>
       <c r="E242" t="n">
-        <v>1.632128702658815</v>
+        <v>0.8803376127983834</v>
       </c>
       <c r="F242" t="n">
-        <v>1.610942323602871</v>
+        <v>0.8540506928657537</v>
       </c>
       <c r="G242" t="n">
-        <v>1.652586741179202</v>
+        <v>0.9067373340430144</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>247</v>
+        <v>37</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>44132.99930555555</v>
+        <v>43922.99930555555</v>
       </c>
       <c r="C243" t="n">
-        <v>24991</v>
+        <v>4782</v>
       </c>
       <c r="D243" t="n">
-        <v>24688.75188862992</v>
+        <v>4599.620791322276</v>
       </c>
       <c r="E243" t="n">
-        <v>1.595954564160752</v>
+        <v>0.8991156136481316</v>
       </c>
       <c r="F243" t="n">
-        <v>1.5759211835266</v>
+        <v>0.8733764293954909</v>
       </c>
       <c r="G243" t="n">
-        <v>1.615424538274628</v>
+        <v>0.925375956364536</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>248</v>
+        <v>36</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>44133.99930555555</v>
+        <v>43921.99930555555</v>
       </c>
       <c r="C244" t="n">
-        <v>26831</v>
+        <v>4053</v>
       </c>
       <c r="D244" t="n">
-        <v>26047.3427591455</v>
+        <v>4758.731550523786</v>
       </c>
       <c r="E244" t="n">
-        <v>1.554720282323764</v>
+        <v>0.9258850690373206</v>
       </c>
       <c r="F244" t="n">
-        <v>1.535969123758722</v>
+        <v>0.8984421956795918</v>
       </c>
       <c r="G244" t="n">
-        <v>1.573629619021262</v>
+        <v>0.9511521979623861</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>44134.99930555555</v>
+        <v>43920.99930555555</v>
       </c>
       <c r="C245" t="n">
-        <v>31084</v>
+        <v>4050</v>
       </c>
       <c r="D245" t="n">
-        <v>27241.82717679111</v>
+        <v>4939.935526318343</v>
       </c>
       <c r="E245" t="n">
-        <v>1.50779727612992</v>
+        <v>0.9630908721250023</v>
       </c>
       <c r="F245" t="n">
-        <v>1.490230894175057</v>
+        <v>0.9363422944970548</v>
       </c>
       <c r="G245" t="n">
-        <v>1.525870374658006</v>
+        <v>0.9900301017338683</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>44135.99930555555</v>
+        <v>43919.99930555555</v>
       </c>
       <c r="C246" t="n">
-        <v>31758</v>
+        <v>5217</v>
       </c>
       <c r="D246" t="n">
-        <v>28257.41334556866</v>
+        <v>5134.472391300935</v>
       </c>
       <c r="E246" t="n">
-        <v>1.457605031484169</v>
+        <v>1.010662199769047</v>
       </c>
       <c r="F246" t="n">
-        <v>1.4409903274733</v>
+        <v>0.9828735145437374</v>
       </c>
       <c r="G246" t="n">
-        <v>1.47491679277316</v>
+        <v>1.038302761448175</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>251</v>
+        <v>33</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>44136.99930555555</v>
+        <v>43918.99930555555</v>
       </c>
       <c r="C247" t="n">
-        <v>29907</v>
+        <v>5974</v>
       </c>
       <c r="D247" t="n">
-        <v>29138.23442711743</v>
+        <v>5323.17523025608</v>
       </c>
       <c r="E247" t="n">
-        <v>1.408641595633645</v>
+        <v>1.066949930996363</v>
       </c>
       <c r="F247" t="n">
-        <v>1.392740761985594</v>
+        <v>1.038807431267222</v>
       </c>
       <c r="G247" t="n">
-        <v>1.425145625306814</v>
+        <v>1.096686692741679</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>252</v>
+        <v>32</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>44137.99930555555</v>
+        <v>43917.99930555555</v>
       </c>
       <c r="C248" t="n">
-        <v>22253</v>
+        <v>5959</v>
       </c>
       <c r="D248" t="n">
-        <v>29968.67645518461</v>
+        <v>5485.510607506072</v>
       </c>
       <c r="E248" t="n">
-        <v>1.365739524345809</v>
+        <v>1.129470321546598</v>
       </c>
       <c r="F248" t="n">
-        <v>1.349907759316895</v>
+        <v>1.098584739999257</v>
       </c>
       <c r="G248" t="n">
-        <v>1.381060034966213</v>
+        <v>1.158053778251764</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>44138.99930555555</v>
+        <v>43916.99930555555</v>
       </c>
       <c r="C249" t="n">
-        <v>28244</v>
+        <v>6153</v>
       </c>
       <c r="D249" t="n">
-        <v>30819.72038403659</v>
+        <v>5607.793450508319</v>
       </c>
       <c r="E249" t="n">
-        <v>1.331073568702557</v>
+        <v>1.197429804205125</v>
       </c>
       <c r="F249" t="n">
-        <v>1.316092977872596</v>
+        <v>1.166391804203768</v>
       </c>
       <c r="G249" t="n">
-        <v>1.345491450325453</v>
+        <v>1.229215380233845</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>44139.99930555555</v>
+        <v>43915.99930555555</v>
       </c>
       <c r="C250" t="n">
-        <v>30550</v>
+        <v>5210</v>
       </c>
       <c r="D250" t="n">
-        <v>31687.61648117612</v>
+        <v>5684.893701548698</v>
       </c>
       <c r="E250" t="n">
-        <v>1.303317221625738</v>
+        <v>1.271621064105222</v>
       </c>
       <c r="F250" t="n">
-        <v>1.288516226658088</v>
+        <v>1.238813075049346</v>
       </c>
       <c r="G250" t="n">
-        <v>1.317053639869264</v>
+        <v>1.305139948935898</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>255</v>
+        <v>29</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>44140.99930555555</v>
+        <v>43914.99930555555</v>
       </c>
       <c r="C251" t="n">
-        <v>34505</v>
+        <v>5249</v>
       </c>
       <c r="D251" t="n">
-        <v>32509.71548454645</v>
+        <v>5717.208025200879</v>
       </c>
       <c r="E251" t="n">
-        <v>1.278724291959008</v>
+        <v>1.354004276453686</v>
       </c>
       <c r="F251" t="n">
-        <v>1.265007901921113</v>
+        <v>1.31822099757309</v>
       </c>
       <c r="G251" t="n">
-        <v>1.292426267788479</v>
+        <v>1.38938456431412</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>256</v>
+        <v>28</v>
       </c>
       <c r="B252" s="2" t="n">
-        <v>44141.99930555555</v>
+        <v>43913.99930555555</v>
       </c>
       <c r="C252" t="n">
-        <v>37809</v>
+        <v>4789</v>
       </c>
       <c r="D252" t="n">
-        <v>33206.08696351144</v>
+        <v>5702.179395809905</v>
       </c>
       <c r="E252" t="n">
-        <v>1.253614792162106</v>
+        <v>1.446019969131841</v>
       </c>
       <c r="F252" t="n">
-        <v>1.240338585747851</v>
+        <v>1.407372133905994</v>
       </c>
       <c r="G252" t="n">
-        <v>1.267065095839127</v>
+        <v>1.483083498206879</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>257</v>
+        <v>27</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>44142.99930555555</v>
+        <v>43912.99930555555</v>
       </c>
       <c r="C253" t="n">
-        <v>39811</v>
+        <v>5560</v>
       </c>
       <c r="D253" t="n">
-        <v>33732.53384467749</v>
+        <v>5630.565773440974</v>
       </c>
       <c r="E253" t="n">
-        <v>1.226527157999614</v>
+        <v>1.546544265442522</v>
       </c>
       <c r="F253" t="n">
-        <v>1.213368810067297</v>
+        <v>1.506160605024485</v>
       </c>
       <c r="G253" t="n">
-        <v>1.239439635701664</v>
+        <v>1.587114601450883</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>44143.99930555555</v>
+        <v>43911.99930555555</v>
       </c>
       <c r="C254" t="n">
-        <v>32616</v>
+        <v>6557</v>
       </c>
       <c r="D254" t="n">
-        <v>34113.68409260785</v>
+        <v>5487.390718634382</v>
       </c>
       <c r="E254" t="n">
-        <v>1.198733825715305</v>
+        <v>1.650338403724035</v>
       </c>
       <c r="F254" t="n">
-        <v>1.186384703482376</v>
+        <v>1.606677925011371</v>
       </c>
       <c r="G254" t="n">
-        <v>1.211232964440617</v>
+        <v>1.692815247885323</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>44144.99930555555</v>
+        <v>43910.99930555555</v>
       </c>
       <c r="C255" t="n">
-        <v>25271</v>
+        <v>5986</v>
       </c>
       <c r="D255" t="n">
-        <v>34430.12326008769</v>
+        <v>5262.025850184803</v>
       </c>
       <c r="E255" t="n">
-        <v>1.173486572157142</v>
+        <v>1.751575062047092</v>
       </c>
       <c r="F255" t="n">
-        <v>1.161062338146662</v>
+        <v>1.705436314848651</v>
       </c>
       <c r="G255" t="n">
-        <v>1.185756631396226</v>
+        <v>1.800730373616059</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>44145.99930555555</v>
+        <v>43909.99930555555</v>
       </c>
       <c r="C256" t="n">
-        <v>35098</v>
+        <v>5322</v>
       </c>
       <c r="D256" t="n">
-        <v>34744.76237693566</v>
+        <v>4958.978971896596</v>
       </c>
       <c r="E256" t="n">
-        <v>1.152761521449032</v>
+        <v>1.844019168341095</v>
       </c>
       <c r="F256" t="n">
-        <v>1.140768928589765</v>
+        <v>1.792747788005043</v>
       </c>
       <c r="G256" t="n">
-        <v>1.164656741316182</v>
+        <v>1.895456853246481</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>44146.99930555555</v>
+        <v>43908.99930555555</v>
       </c>
       <c r="C257" t="n">
-        <v>32961</v>
+        <v>4207</v>
       </c>
       <c r="D257" t="n">
-        <v>35044.20267963337</v>
+        <v>4597.986156102399</v>
       </c>
       <c r="E257" t="n">
-        <v>1.135181783528724</v>
+        <v>1.925148111368934</v>
       </c>
       <c r="F257" t="n">
-        <v>1.123405669636265</v>
+        <v>1.869161364737081</v>
       </c>
       <c r="G257" t="n">
-        <v>1.147244502643785</v>
+        <v>1.981475505425481</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>44147.99930555555</v>
+        <v>43907.99930555555</v>
       </c>
       <c r="C258" t="n">
-        <v>37978</v>
+        <v>3526</v>
       </c>
       <c r="D258" t="n">
-        <v>35271.71157364748</v>
+        <v>4206.863970707115</v>
       </c>
       <c r="E258" t="n">
-        <v>1.118665783455487</v>
+        <v>1.998306148126817</v>
       </c>
       <c r="F258" t="n">
-        <v>1.10716812244357</v>
+        <v>1.940478528403295</v>
       </c>
       <c r="G258" t="n">
-        <v>1.130539152302848</v>
+        <v>2.061213770080558</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>44148.99930555555</v>
+        <v>43906.99930555555</v>
       </c>
       <c r="C259" t="n">
-        <v>40902</v>
+        <v>3233</v>
       </c>
       <c r="D259" t="n">
-        <v>35356.74621952384</v>
+        <v>3810.731603112705</v>
       </c>
       <c r="E259" t="n">
-        <v>1.100639345539477</v>
+        <v>2.068465735965944</v>
       </c>
       <c r="F259" t="n">
-        <v>1.089298725572058</v>
+        <v>2.004925497235616</v>
       </c>
       <c r="G259" t="n">
-        <v>1.112057333299548</v>
+        <v>2.136285514322696</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>44149.99930555555</v>
+        <v>43905.99930555555</v>
       </c>
       <c r="C260" t="n">
-        <v>37255</v>
+        <v>3590</v>
       </c>
       <c r="D260" t="n">
-        <v>35265.30914565536</v>
+        <v>3425.14272847816</v>
       </c>
       <c r="E260" t="n">
-        <v>1.080279625746079</v>
+        <v>2.13910221467652</v>
       </c>
       <c r="F260" t="n">
-        <v>1.06875627380152</v>
+        <v>2.06763614913356</v>
       </c>
       <c r="G260" t="n">
-        <v>1.091671703369817</v>
+        <v>2.211049304602323</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>265</v>
+        <v>19</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>44150.99930555555</v>
+        <v>43904.99930555555</v>
       </c>
       <c r="C261" t="n">
-        <v>33979</v>
+        <v>3497</v>
       </c>
       <c r="D261" t="n">
-        <v>35023.25097694289</v>
+        <v>3056.026171947804</v>
       </c>
       <c r="E261" t="n">
-        <v>1.058633718830914</v>
+        <v>2.213996369061134</v>
       </c>
       <c r="F261" t="n">
-        <v>1.047564555350405</v>
+        <v>2.136886113240921</v>
       </c>
       <c r="G261" t="n">
-        <v>1.069814684970963</v>
+        <v>2.291034296792358</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>266</v>
+        <v>18</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>44151.99930555555</v>
+        <v>43903.99930555555</v>
       </c>
       <c r="C262" t="n">
-        <v>27354</v>
+        <v>2547</v>
       </c>
       <c r="D262" t="n">
-        <v>34684.1206255666</v>
+        <v>2705.40377276843</v>
       </c>
       <c r="E262" t="n">
-        <v>1.037278627592162</v>
+        <v>2.28886424470632</v>
       </c>
       <c r="F262" t="n">
-        <v>1.026565611069501</v>
+        <v>2.202810385218476</v>
       </c>
       <c r="G262" t="n">
-        <v>1.048053761447724</v>
+        <v>2.373499160923195</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>267</v>
+        <v>17</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>44152.99930555555</v>
+        <v>43902.99930555555</v>
       </c>
       <c r="C263" t="n">
-        <v>32191</v>
+        <v>2651</v>
       </c>
       <c r="D263" t="n">
-        <v>34277.1785732316</v>
+        <v>2375.459675401488</v>
       </c>
       <c r="E263" t="n">
-        <v>1.017412947392296</v>
+        <v>2.364514327629453</v>
       </c>
       <c r="F263" t="n">
-        <v>1.006809356246668</v>
+        <v>2.27402242242624</v>
       </c>
       <c r="G263" t="n">
-        <v>1.028002609075749</v>
+        <v>2.461210968785456</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>44153.99930555555</v>
+        <v>43901.99930555555</v>
       </c>
       <c r="C264" t="n">
-        <v>34282</v>
+        <v>2313</v>
       </c>
       <c r="D264" t="n">
-        <v>33765.87266317663</v>
+        <v>2068.199969574979</v>
       </c>
       <c r="E264" t="n">
-        <v>0.9974710413949904</v>
+        <v>2.438737201307874</v>
       </c>
       <c r="F264" t="n">
-        <v>0.9869799282612476</v>
+        <v>2.336581734572544</v>
       </c>
       <c r="G264" t="n">
-        <v>1.007887430576335</v>
+        <v>2.544535954714712</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>44154.99930555555</v>
+        <v>43900.99930555555</v>
       </c>
       <c r="C265" t="n">
-        <v>36176</v>
+        <v>977</v>
       </c>
       <c r="D265" t="n">
-        <v>33079.63509845232</v>
+        <v>1786.696270354389</v>
       </c>
       <c r="E265" t="n">
-        <v>0.9754174953447852</v>
+        <v>2.516642385184804</v>
       </c>
       <c r="F265" t="n">
-        <v>0.965085477318837</v>
+        <v>2.399662033455292</v>
       </c>
       <c r="G265" t="n">
-        <v>0.9860835206532085</v>
+        <v>2.632077507114305</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>270</v>
+        <v>14</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>44155.99930555555</v>
+        <v>43899.99930555555</v>
       </c>
       <c r="C266" t="n">
-        <v>37242</v>
+        <v>1797</v>
       </c>
       <c r="D266" t="n">
-        <v>32166.54122592466</v>
+        <v>1533.57391711426</v>
       </c>
       <c r="E266" t="n">
-        <v>0.9496040501360038</v>
+        <v>2.599501304884708</v>
       </c>
       <c r="F266" t="n">
-        <v>0.9395559894698102</v>
+        <v>2.469735076714271</v>
       </c>
       <c r="G266" t="n">
-        <v>0.9601361088305636</v>
+        <v>2.726742418421338</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>271</v>
+        <v>13</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>44156.99930555555</v>
+        <v>43898.99930555555</v>
       </c>
       <c r="C267" t="n">
-        <v>34767</v>
+        <v>1492</v>
       </c>
       <c r="D267" t="n">
-        <v>31040.82704690434</v>
+        <v>1307.052240162365</v>
       </c>
       <c r="E267" t="n">
-        <v>0.9206867552199787</v>
+        <v>2.687776081966617</v>
       </c>
       <c r="F267" t="n">
-        <v>0.9105429506640031</v>
+        <v>2.544165375490672</v>
       </c>
       <c r="G267" t="n">
-        <v>0.9314647667432204</v>
+        <v>2.833300127929616</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>44157.99930555555</v>
+        <v>43897.99930555555</v>
       </c>
       <c r="C268" t="n">
-        <v>28337</v>
+        <v>1247</v>
       </c>
       <c r="D268" t="n">
-        <v>29799.44307877321</v>
+        <v>1105.081710777732</v>
       </c>
       <c r="E268" t="n">
-        <v>0.891322015486726</v>
+        <v>2.781758597523088</v>
       </c>
       <c r="F268" t="n">
-        <v>0.8809688879687335</v>
+        <v>2.620278692938359</v>
       </c>
       <c r="G268" t="n">
-        <v>0.9012751442385321</v>
+        <v>2.945160182792168</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>44158.99930555555</v>
+        <v>43896.99930555555</v>
       </c>
       <c r="C269" t="n">
-        <v>22930</v>
+        <v>778</v>
       </c>
       <c r="D269" t="n">
-        <v>28587.88362886081</v>
+        <v>926.8469009622889</v>
       </c>
       <c r="E269" t="n">
-        <v>0.8659332989620775</v>
+        <v>2.885668650579812</v>
       </c>
       <c r="F269" t="n">
-        <v>0.8557558025618367</v>
+        <v>2.704335510814409</v>
       </c>
       <c r="G269" t="n">
-        <v>0.8757727049513746</v>
+        <v>3.068644308649456</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>274</v>
+        <v>10</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>44159.99930555555</v>
+        <v>43895.99930555555</v>
       </c>
       <c r="C270" t="n">
-        <v>23232</v>
+        <v>769</v>
       </c>
       <c r="D270" t="n">
-        <v>27528.78433879744</v>
+        <v>772.419853351285</v>
       </c>
       <c r="E270" t="n">
-        <v>0.8478342458895907</v>
+        <v>3.012716098815155</v>
       </c>
       <c r="F270" t="n">
-        <v>0.8380163834808627</v>
+        <v>2.806501898152989</v>
       </c>
       <c r="G270" t="n">
-        <v>0.8583253838126084</v>
+        <v>3.223123572385248</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>275</v>
+        <v>9</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>44160.99930555555</v>
+        <v>43894.99930555555</v>
       </c>
       <c r="C271" t="n">
-        <v>25853</v>
+        <v>587</v>
       </c>
       <c r="D271" t="n">
-        <v>26665.14415964995</v>
+        <v>640.9944074314133</v>
       </c>
       <c r="E271" t="n">
-        <v>0.8377204662517624</v>
+        <v>3.190373624713172</v>
       </c>
       <c r="F271" t="n">
-        <v>0.8278298347396669</v>
+        <v>2.943563590282525</v>
       </c>
       <c r="G271" t="n">
-        <v>0.8480030785080122</v>
+        <v>3.438288402352172</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>276</v>
+        <v>8</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>44161.99930555555</v>
+        <v>43893.99930555555</v>
       </c>
       <c r="C272" t="n">
-        <v>29003</v>
+        <v>466</v>
       </c>
       <c r="D272" t="n">
-        <v>25960.15616334927</v>
+        <v>530.6088883693205</v>
       </c>
       <c r="E272" t="n">
-        <v>0.8341396315763779</v>
+        <v>3.455082309148727</v>
       </c>
       <c r="F272" t="n">
-        <v>0.8243001984678241</v>
+        <v>3.17239756923786</v>
       </c>
       <c r="G272" t="n">
-        <v>0.8443720741577028</v>
+        <v>3.754541389046756</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>277</v>
+        <v>7</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>44162.99930555555</v>
+        <v>43892.99930555555</v>
       </c>
       <c r="C273" t="n">
-        <v>28352</v>
+        <v>342</v>
       </c>
       <c r="D273" t="n">
-        <v>25340.05619750609</v>
+        <v>437.903030941235</v>
       </c>
       <c r="E273" t="n">
-        <v>0.8342087205276288</v>
+        <v>3.862315927417467</v>
       </c>
       <c r="F273" t="n">
-        <v>0.8236411388440215</v>
+        <v>3.502412497974359</v>
       </c>
       <c r="G273" t="n">
-        <v>0.8443219946979422</v>
+        <v>4.223143076743031</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>278</v>
+        <v>6</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>44163.99930555555</v>
+        <v>43891.99930555555</v>
       </c>
       <c r="C274" t="n">
-        <v>26323</v>
+        <v>566</v>
       </c>
       <c r="D274" t="n">
-        <v>24745.10298182266</v>
+        <v>358.4148984711344</v>
       </c>
       <c r="E274" t="n">
-        <v>0.8353841841939478</v>
+        <v>4.491548269870735</v>
       </c>
       <c r="F274" t="n">
-        <v>0.8245579123449814</v>
+        <v>4.024604353724713</v>
       </c>
       <c r="G274" t="n">
-        <v>0.8452661330251902</v>
+        <v>4.951013993269946</v>
       </c>
     </row>
   </sheetData>
